--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_opening.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_opening.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,12 +508,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>(色彩は混濁し、上下左右の感覚が溶けていく。次に足が触れたのは、石畳だった。)</t>
+          <t>(色彩は混濁し、上下左右の感覚が溶けていく。次に足が触れたのは、石畳だ。)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>(色彩は混濁し、上下左右の感覚が溶けていく。次に足が触れたのは、石畳だった。)</t>
+          <t>(色彩は混濁し、上下左右の感覚が溶けていく。次に足が触れたのは、石畳だ。)</t>
         </is>
       </c>
     </row>
@@ -540,710 +540,630 @@
       </c>
     </row>
     <row r="10">
-      <c r="F10" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>shake</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="F11" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>narr3</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>(ただ、紫紺の渦を巻く「虚無」が天を覆い、時折、空間の裂け目から巨大な鎖が垂れ下がっている。遠くから響くのは、雷鳴のような喝采。だが、その声には「熱」がない。
 高次元の観客たちが、ただ死を消費するために発する、冷ややかな振動だ。)</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>(ただ、紫紺の渦を巻く「虚無」が天を覆い、時折、空間の裂け目から巨大な鎖が垂れ下がっている。遠くから響くのは、雷鳴のような喝采。だが、その声には「熱」がない。
 高次元の観客たちが、ただ死を消費するために発する、冷ややかな振動だ。)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="F11" t="inlineStr">
+    <row r="12">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>lily1</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>……あら。珍しいこともあるものですね。召喚の儀も、空間の歪みもなしに、この『ヴォイド・コロシアム』に迷い込む『生きた肉』がいるなんて。</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>……あら。珍しいこともあるものですね。召喚の儀も、空間の歪みもなしに、この『ヴォイド・コロシアム』に迷い込む『生きた肉』がいるなんて。</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>lily2</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>お客様、それとも……新たな『商品』かしら？ここは境界の終わり、そして絶望の始まり。</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>お客様、それとも……新たな『商品』かしら？ここは境界の終わり、そして絶望の始まり。</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>lily3</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>あなたがどこから来たのかは問いません。入られた方は皆、あそこにいる「飲んだくれ」に聞くのが、ここの作法ですから。</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>あなたがどこから来たのかは問いません。入られた方は皆、あそこにいる「飲んだくれ」に聞くのが、ここの作法ですから。</t>
-        </is>
-      </c>
     </row>
     <row r="14">
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>vargus1</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>……ケッ、シケた面してやがる。おい、サキュバス。そんなひょろいガキ、鑑定するまでもねえ。</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>……ケッ、シケた面してやがる。おい、サキュバス。そんなひょろいガキ、鑑定するまでもねえ。</t>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="F15" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>vargus2</t>
+          <t>lily1</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>どうせ地上でちょっとばかり魔物に追われて、運悪く次元の割れ目に滑り落ちただけの「迷い犬」だ。おい、小僧。ここは選ばれた狂人どもが、神々の暇つぶしのために殺し合う場所だ。</t>
+          <t>……あら。珍しいこともあるものですね。召喚の儀も、空間の歪みもなしに、この『ヴォイド・コロシアム』に迷い込む『生きた肉』がいるなんて。</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>どうせ地上でちょっとばかり魔物に追われて、運悪く次元の割れ目に滑り落ちただけの「迷い犬」だ。おい、小僧。ここは選ばれた狂人どもが、神々の暇つぶしのために殺し合う場所だ。</t>
+          <t>……あら。珍しいこともあるものですね。召喚の儀も、空間の歪みもなしに、この『ヴォイド・コロシアム』に迷い込む『生きた肉』がいるなんて。</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="F16" t="inlineStr">
         <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>lily2</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>お客様、それとも……新たな『商品』かしら？ここは境界の終わり、そして絶望の始まり。</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>お客様、それとも……新たな『商品』かしら？ここは境界の終わり、そして絶望の始まり。</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>lily3</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>あなたがどこから来たのかは問いません。入られた方は皆、あそこにいる「飲んだくれ」に話を通すのが、ここの作法ですから。</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>あなたがどこから来たのかは問いません。入られた方は皆、あそこにいる「飲んだくれ」に話を通すのが、ここの作法ですから。</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>unfocus</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+    </row>
+    <row r="23">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>vargus1</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>……ケッ、シケた面してやがる。おい、サキュバス。そんなひょろいガキ、鑑定するまでもねえ。</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>……ケッ、シケた面してやがる。おい、サキュバス。そんなひょろいガキ、鑑定するまでもねえ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>vargus2</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>どうせ地上でちょっとばかり魔物に追われて、運悪く次元の割れ目に滑り落ちただけの「迷い犬」だ。おい、小僧。ここは選ばれた狂人どもが、神々の暇つぶしのために殺し合う場所だ。</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>どうせ地上でちょっとばかり魔物に追われて、運悪く次元の割れ目に滑り落ちただけの「迷い犬」だ。おい、小僧。ここは選ばれた狂人どもが、神々の暇つぶしのために殺し合う場所だ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
         <is>
           <t>vargus3</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>そう、いわば闘技場だ。故郷が恋しいなら、隅で丸まって震えてな。運が良ければ、次の次元の潮流でお前の死体くらいは地上に打ち上げられるかもしれねえぜ。
 ……あ？ なんだその目は。お前になにができるってんだ？</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>そう、いわば闘技場だ。故郷が恋しいなら、隅で丸まって震えてな。運が良ければ、次の次元の潮流でお前の死体くらいは地上に打ち上げられるかもしれねえぜ。
 ……あ？ なんだその目は。お前になにができるってんだ？</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" t="inlineStr">
+    <row r="27">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>unfocus</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
         <is>
           <t>vargus_react</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>c_resolve_fight</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>腕には自信があるし、闘技場に興味もある</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>腕には自信があるし、闘技場に興味もある</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" t="inlineStr">
+    <row r="31">
+      <c r="B31" t="inlineStr">
         <is>
           <t>vargus_react</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>c_resolve_survive</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>頼もしい仲間がいる</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>頼もしい仲間がいる</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" t="inlineStr">
+    <row r="32">
+      <c r="B32" t="inlineStr">
         <is>
           <t>vargus_react</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>c_resolve_drift</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>得意なことはない</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>得意なことはない</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>vargus_react</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="F21" t="inlineStr">
+    <row r="34">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>shake</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="F35" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>vargus_react1</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>……ハッ、そうかよ！ この地獄の底に立った時点で、貴様はもう『闘士』だ。</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>……ハッ、そうかよ！ この地獄の底に立った時点で、貴様はもう『闘士』だ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="F22" t="inlineStr">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">……ハッ、そうかよ！ </t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">……ハッ、そうかよ！ </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="F36" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>vargus_react2</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>おまえのクソ度胸、安酒のツマミくらいにはなりそうだ。……だが、ただの駒で終わるか、名を刻むかはお前次第だ。
 聞かせろ、お前は何のために戦う？</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>おまえのクソ度胸、安酒のツマミくらいにはなりそうだ。……だが、ただの駒で終わるか、名を刻むかはお前次第だ。
 聞かせろ、お前は何のために戦う？</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="B23" t="inlineStr">
+    <row r="37">
+      <c r="B37" t="inlineStr">
         <is>
           <t>greed</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>c1</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>【強欲】富と名声、そして力が欲しい</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>【強欲】富と名声、そして力が欲しい</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="B24" t="inlineStr">
+    <row r="38">
+      <c r="B38" t="inlineStr">
         <is>
           <t>battle</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>c2</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>【求道】己の限界を知りたい。強い奴と戦わせろ</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>【求道】己の限界を知りたい。強い奴と戦わせろ</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>void</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>c3</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>【虚無】帰る場所などない。ここが終着点だ</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>【虚無】帰る場所などない。ここが終着点だ</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>pride</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>c4</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>【傲慢】この闘技場も、あのドラゴンも、いずれ配下に置いてやる</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>【傲慢】この闘技場も、あのドラゴンも、いずれ配下に置いてやる</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>drift</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>c5</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>【狂人】理由はない</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>【狂人】理由はない</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>greed</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>cancel</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>greed</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>greed_v1</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>ハッ！ わかりやすくていいぜ。金と権力……地上のクズどもが一生かけて追いまわすゴミ屑だ。だがいいか、ここでは金などただの石ころだ。</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>ハッ！ わかりやすくていいぜ。金と権力……地上のクズどもが一生かけて追いまわすゴミ屑だ。だがいいか、ここでは金などただの石ころだ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>greed_v2</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>お前が手にするのは、神々すら平伏させる「圧倒的な階位」……。それが欲しけりゃ、他人の内臓を積み上げて階段を作るんだな。</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>お前が手にするのは、神々すら平伏させる「圧倒的な階位」……。それが欲しけりゃ、他人の内臓を積み上げて階段を作るんだな。</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>greed_l1</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>ふふ、強欲な魂は好物ですよ。あなたが稼ぐ賞金……その何割を私が手数料としていただくことになるのか、楽しみです。精々、死なずに稼いでくださいね？</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>ふふ、強欲な魂は好物ですよ。あなたが稼ぐ賞金……その何割を私が手数料としていただくことになるのか、楽しみです。精々、死なずに稼いでくださいね？</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>battle</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>battle_v1</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>……チッ、一番厄介な手合いだ。己の限界だと？ 深淵を前にそんなセリフが吐けるか。</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>……チッ、一番厄介な手合いだ。己の限界だと？ 深淵を前にそんなセリフが吐けるか。</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>battle_v2</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>いいぜ、お前のその真っ直ぐな瞳が、絶望で濁っていく様を見るのは……</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>いいぜ、お前のその真っ直ぐな瞳が、絶望で濁っていく様を見るのは……</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>battle_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>……かつての俺を見るようで、反吐が出るがな。</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>……かつての俺を見るようで、反吐が出るがな。</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>battle_l1</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>……あら。戦うこと自体が目的、ですか。あなたの放つその濃密な「闘気」……少し当てられただけで、サキュバスとしての本能が疼いてしまいます。壊れてしまう前に、その輝きを存分に見せてくださいね。</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>……あら。戦うこと自体が目的、ですか。あなたの放つその濃密な「闘気」……少し当てられただけで、サキュバスとしての本能が疼いてしまいます。壊れてしまう前に、その輝きを存分に見せてくださいね。</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>ending</t>
+          <t>void</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>【虚無】帰る場所などない。ここが終着点だ</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>【虚無】帰る場所などない。ここが終着点だ</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>void</t>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>pride</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>【傲慢】この闘技場も、あのドラゴンも、いずれ配下に置いてやる</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>【傲慢】この闘技場も、あのドラゴンも、いずれ配下に置いてやる</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>drift</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>c5</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>【狂人】理由はない</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>【狂人】理由はない</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>drift</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>greed</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.motivation,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="F45" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>void_v1</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>……（沈黙）フン、訳ありか。だがな小僧、ここは逃げ込むための掃き溜めじゃねえ。生への執着を捨てた奴から死んでいく場所だ。</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>……（沈黙）フン、訳ありか。だがな小僧、ここは逃げ込むための掃き溜めじゃねえ。生への執着を捨てた奴から死んでいく場所だ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>void_v2</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>……いいか、戦いの中でしか己の輪郭を保てねえってんなら、死に物狂いで剣を振れ。そうすりゃ、その虚無も少しは埋まるかもしれねえぜ。</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>……いいか、戦いの中でしか己の輪郭を保てねえってんなら、死に物狂いで剣を振れ。そうすりゃ、その虚無も少しは埋まるかもしれねえぜ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>void_l1</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>……居場所を求めて、わざわざ異次元まで。少し同情してしまいますね。ですが、事務手続きに私情は挟みませんよ？</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>……居場所を求めて、わざわざ異次元まで。少し同情してしまいますね。ですが、事務手続きに私情は挟みませんよ？</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>pride</t>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>greed_v1</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>ハッ！ わかりやすくていいぜ。金と権力……地上のクズどもが一生かけて追いまわすゴミ屑だ。だがいいか、ここでは金などただの石ころだ。</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ハッ！ わかりやすくていいぜ。金と権力……地上のクズどもが一生かけて追いまわすゴミ屑だ。だがいいか、ここでは金などただの石ころだ。</t>
         </is>
       </c>
     </row>
@@ -1255,75 +1175,65 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>pride_v1</t>
+          <t>greed_v2</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>……ハハハ！傑作だ！聞こえたかリリィ？ この新入り、初日から『王』を気取ってやがる！</t>
+          <t>お前が手にするのは、神々すら平伏させる「圧倒的な階位」……。それが欲しけりゃ、他人の内臓を積み上げて階段を作るんだな。</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>……ハハハ！傑作だ！聞こえたかリリィ？ この新入り、初日から『王』を気取ってやがる！</t>
+          <t>お前が手にするのは、神々すら平伏させる「圧倒的な階位」……。それが欲しけりゃ、他人の内臓を積み上げて階段を作るんだな。</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="F47" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>pride_v2</t>
+          <t>greed_l1</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>だがな、その傲慢さが武器になることもある。神を殺すのはいつだって、己の身の程を知らぬ大馬鹿野郎だ。</t>
+          <t>ふふ、強欲な魂は好物ですよ。あなたが稼ぐ賞金……その何割を私が手数料としていただくことになるのか、楽しみです。精々、死なずに稼いでくださいね？</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>だがな、その傲慢さが武器になることもある。神を殺すのはいつだって、己の身の程を知らぬ大馬鹿野郎だ。</t>
+          <t>ふふ、強欲な魂は好物ですよ。あなたが稼ぐ賞金……その何割を私が手数料としていただくことになるのか、楽しみです。精々、死なずに稼いでくださいね？</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>pride_l1</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>……まぁ。グランドマスターの座を狙うなんて。ふふ、夢物語でも期待しておきましょう。</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>……まぁ。グランドマスターの座を狙うなんて。ふふ、夢物語でも期待しておきましょう。</t>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>ending</t>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>battle</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>drift</t>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.motivation,1</t>
         </is>
       </c>
     </row>
@@ -1335,97 +1245,97 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>drift_v1</t>
+          <t>battle_v1</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>……チッ。ヤク中か、それとも脳みそまで混沌に冒されたか。会話もできねえ壊れた玩具に用はねえんだがな。</t>
+          <t>……チッ、一番厄介な手合いだ。己の限界だと？ 深淵を前にそんなセリフが吐けるか。</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>……チッ。ヤク中か、それとも脳みそまで混沌に冒されたか。会話もできねえ壊れた玩具に用はねえんだがな。</t>
+          <t>……チッ、一番厄介な手合いだ。己の限界だと？ 深淵を前にそんなセリフが吐けるか。</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="inlineStr">
         <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>battle_v2</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>いいぜ、お前のその真っ直ぐな瞳が、絶望で濁っていく様を見るのは……</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>いいぜ、お前のその真っ直ぐな瞳が、絶望で濁っていく様を見るのは……</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>battle_v3</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>……かつての俺を見るようで、反吐が出るがな。</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>……かつての俺を見るようで、反吐が出るがな。</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="F54" t="inlineStr">
+        <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>drift_l1</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>あら、私は嫌いではありませんよ？ 理由なき衝動ほど、純粋で美しいものはありません。あなたのその濁った瞳……何を見るのか楽しみです。</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>あら、私は嫌いではありませんよ？ 理由なき衝動ほど、純粋で美しいものはありません。あなたのその濁った瞳……何を見るのか楽しみです。</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" t="inlineStr">
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>battle_l1</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>……あら。戦うこと自体が目的、ですか。あなたの放つその濃密な「闘気」……少し当てられただけで、サキュバスとしての本能が疼いてしまいます。壊れてしまう前に、その輝きを存分に見せてくださいね。</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>……あら。戦うこと自体が目的、ですか。あなたの放つその濃密な「闘気」……少し当てられただけで、サキュバスとしての本能が疼いてしまいます。壊れてしまう前に、その輝きを存分に見せてくださいね。</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="inlineStr">
         <is>
           <t>ending</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>end_v1</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>リリィ！ こいつの名前を、最低ランクの「肉屑」の列に書き加えろ！</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>リリィ！ こいつの名前を、最低ランクの「肉屑」の列に書き加えろ！</t>
-        </is>
-      </c>
-    </row>
     <row r="56">
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>end_v2</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>お前がただの肉塊か、それとも多少は骨のある肉塊か……。このコロシアムが、一億の死をもって証明してやるよ。</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>お前がただの肉塊か、それとも多少は骨のある肉塊か……。このコロシアムが、一億の死をもって証明してやるよ。</t>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>void</t>
         </is>
       </c>
     </row>
@@ -1437,36 +1347,384 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
+          <t>chitsii.arena.player.motivation,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>void_v1</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>……（沈黙）フン、訳ありか。だがな小僧、ここは逃げ込むための掃き溜めじゃねえ。生への執着を捨てた奴から死んでいく場所だ。</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>……（沈黙）フン、訳ありか。だがな小僧、ここは逃げ込むための掃き溜めじゃねえ。生への執着を捨てた奴から死んでいく場所だ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>void_v2</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>……いいか、戦いの中でしか己の輪郭を保てねえってんなら、死に物狂いで剣を振れ。そうすりゃ、その虚無も少しは埋まるかもしれねえぜ。</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>……いいか、戦いの中でしか己の輪郭を保てねえってんなら、死に物狂いで剣を振れ。そうすりゃ、その虚無も少しは埋まるかもしれねえぜ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>void_l1</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>……居場所を求めて、わざわざ異次元まで。少し同情してしまいますね。ですが、事務手続きに私情は挟みませんよ？</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>……居場所を求めて、わざわざ異次元まで。少し同情してしまいますね。ですが、事務手続きに私情は挟みませんよ？</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ending</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>pride</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.motivation,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>shake</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>pride_v1</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>……ハハハ！傑作だ！聞こえたかリリィ？ この新入り、初日から『王』を気取ってやがる！</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>……ハハハ！傑作だ！聞こえたかリリィ？ この新入り、初日から『王』を気取ってやがる！</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>pride_v2</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>だがな、その傲慢さが武器になることもある。神を殺すのはいつだって、己の身の程を知らぬ大馬鹿野郎だ。</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>だがな、その傲慢さが武器になることもある。神を殺すのはいつだって、己の身の程を知らぬ大馬鹿野郎だ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>pride_l1</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>……まぁ。グランドマスターの座を狙うなんて。ふふ、夢物語でも期待しておきましょう。</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>……まぁ。グランドマスターの座を狙うなんて。ふふ、夢物語でも期待しておきましょう。</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ending</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>drift</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>drift_v1</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>……チッ。ヤク中か、それとも脳みそまで混沌に冒されたか。会話もできねえ壊れた玩具に用はねえんだがな。</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>……チッ。ヤク中か、それとも脳みそまで混沌に冒されたか。会話もできねえ壊れた玩具に用はねえんだがな。</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>drift_l1</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>あら、私は嫌いではありませんよ？ 理由なき衝動ほど、純粋で美しいものはありません。あなたのその濁った瞳……何を見るのか楽しみです。</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>あら、私は嫌いではありませんよ？ 理由なき衝動ほど、純粋で美しいものはありません。あなたのその濁った瞳……何を見るのか楽しみです。</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ending</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ending</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>shake</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>end_v1</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>リリィ！ こいつの名前を、最低ランクの「肉屑」の列に書き加えろ！</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>リリィ！ こいつの名前を、最低ランクの「肉屑」の列に書き加えろ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>end_v2</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>お前がただの肉塊か、それとも多少は骨のある肉塊か……。このコロシアムが、一億の死をもって証明してやるよ。</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>お前がただの肉塊か、それとも多少は骨のある肉塊か……。このコロシアムが、一億の死をもって証明してやるよ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.rank,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>chitsii.arena.rel.lily,30</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>chitsii.arena.rel.balgas,20</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>chitsii.arena.rel.zek,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
           <t>sukutsu_gladiator,1</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="D58" t="inlineStr">
+    <row r="82">
+      <c r="D82" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>sukutsu_arena_stage,1</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="D59" t="inlineStr">
+    <row r="83">
+      <c r="D83" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>sukutsu_opening_seen,1</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="D60" t="inlineStr">
+    <row r="84">
+      <c r="D84" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_opening.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_opening.xlsx
@@ -488,11 +488,13 @@
     <row r="7">
       <c r="D7" t="inlineStr">
         <is>
-          <t>bgm</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>22001</v>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/sukutsu_arena_opening");             var data = SoundManager.current.GetData("BGM/sukutsu_arena_opening");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/sukutsu_arena_opening");             }</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -578,7 +580,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -602,7 +604,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -711,7 +713,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -735,7 +737,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_opening.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_opening.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,7 +580,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -682,14 +682,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="D19" t="inlineStr">
         <is>
-          <t>unfocus</t>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
@@ -701,176 +706,223 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>vargus1</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>……ケッ、シケた面してやがる。おい、サキュバス。そんなひょろいガキ、鑑定するまでもねえ。</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>……ケッ、シケた面してやがる。おい、サキュバス。そんなひょろいガキ、鑑定するまでもねえ。</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>vargus2</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>どうせ地上でちょっとばかり魔物に追われて、運悪く次元の割れ目に滑り落ちただけの「迷い犬」だ。おい、小僧。ここは選ばれた狂人どもが、神々の暇つぶしのために殺し合う場所だ。</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>どうせ地上でちょっとばかり魔物に追われて、運悪く次元の割れ目に滑り落ちただけの「迷い犬」だ。おい、小僧。ここは選ばれた狂人どもが、神々の暇つぶしのために殺し合う場所だ。</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>vargus1</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>……ケッ、シケた面してやがる。おい、サキュバス。そんなひょろいガキ、鑑定するまでもねえ。</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>……ケッ、シケた面してやがる。おい、サキュバス。そんなひょろいガキ、鑑定するまでもねえ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>vargus2</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>どうせ地上でちょっとばかり魔物に追われて、運悪く次元の割れ目に滑り落ちただけの「迷い犬」だ。おい、小僧。ここは選ばれた狂人どもが、神々の暇つぶしのために殺し合う場所だ。</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>どうせ地上でちょっとばかり魔物に追われて、運悪く次元の割れ目に滑り落ちただけの「迷い犬」だ。おい、小僧。ここは選ばれた狂人どもが、神々の暇つぶしのために殺し合う場所だ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>vargus3</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>そう、いわば闘技場だ。故郷が恋しいなら、隅で丸まって震えてな。運が良ければ、次の次元の潮流でお前の死体くらいは地上に打ち上げられるかもしれねえぜ。
 ……あ？ なんだその目は。お前になにができるってんだ？</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>そう、いわば闘技場だ。故郷が恋しいなら、隅で丸まって震えてな。運が良ければ、次の次元の潮流でお前の死体くらいは地上に打ち上げられるかもしれねえぜ。
 ……あ？ なんだその目は。お前になにができるってんだ？</t>
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>vargus_react</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>c_resolve_fight</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>腕には自信があるし、闘技場に興味もある</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>腕には自信があるし、闘技場に興味もある</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>vargus_react</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>c_resolve_survive</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>頼もしい仲間がいる</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>頼もしい仲間がいる</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>vargus_react</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>c_resolve_drift</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>得意なことはない</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>得意なことはない</t>
+        </is>
+      </c>
+    </row>
     <row r="27">
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0.2</t>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>vargus_react</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="D28" t="inlineStr">
         <is>
-          <t>unfocus</t>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0.2</t>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>vargus_react1</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">……ハッ、そうかよ！ </t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">……ハッ、そうかよ！ </t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>vargus_react</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>c_resolve_fight</t>
+          <t>vargus_react2</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>腕には自信があるし、闘技場に興味もある</t>
+          <t>おまえのクソ度胸、安酒のツマミくらいにはなりそうだ。……だが、ただの駒で終わるか、名を刻むかはお前次第だ。
+聞かせろ、お前は何のために戦う？</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>腕には自信があるし、闘技場に興味もある</t>
+          <t>おまえのクソ度胸、安酒のツマミくらいにはなりそうだ。……だが、ただの駒で終わるか、名を刻むかはお前次第だ。
+聞かせろ、お前は何のために戦う？</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>vargus_react</t>
+          <t>greed</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -880,24 +932,24 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>c_resolve_survive</t>
+          <t>c1</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>頼もしい仲間がいる</t>
+          <t>【強欲】富と名声、そして力が欲しい</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>頼もしい仲間がいる</t>
+          <t>【強欲】富と名声、そして力が欲しい</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>vargus_react</t>
+          <t>battle</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -907,231 +959,209 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>c_resolve_drift</t>
+          <t>c2</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>得意なことはない</t>
+          <t>【求道】己の限界を知りたい。強い奴と戦わせろ</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>得意なことはない</t>
+          <t>【求道】己の限界を知りたい。強い奴と戦わせろ</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>vargus_react</t>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>void</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>【虚無】帰る場所などない。ここが終着点だ</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>【虚無】帰る場所などない。ここが終着点だ</t>
         </is>
       </c>
     </row>
     <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>pride</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>shake</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>【傲慢】この闘技場も、あのドラゴンも、いずれ配下に置いてやる</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>【傲慢】この闘技場も、あのドラゴンも、いずれ配下に置いてやる</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>drift</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>vargus_react1</t>
+          <t>c5</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t xml:space="preserve">……ハッ、そうかよ！ </t>
+          <t>【狂人】理由はない</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t xml:space="preserve">……ハッ、そうかよ！ </t>
+          <t>【狂人】理由はない</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>vargus_react2</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>おまえのクソ度胸、安酒のツマミくらいにはなりそうだ。……だが、ただの駒で終わるか、名を刻むかはお前次第だ。
-聞かせろ、お前は何のために戦う？</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>おまえのクソ度胸、安酒のツマミくらいにはなりそうだ。……だが、ただの駒で終わるか、名を刻むかはお前次第だ。
-聞かせろ、お前は何のために戦う？</t>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>drift</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>cancel</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="inlineStr">
+      <c r="A37" t="inlineStr">
         <is>
           <t>greed</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>c1</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>【強欲】富と名声、そして力が欲しい</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>【強欲】富と名声、そして力が欲しい</t>
-        </is>
-      </c>
     </row>
     <row r="38">
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>battle</t>
-        </is>
-      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>c2</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>【求道】己の限界を知りたい。強い奴と戦わせろ</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>【求道】己の限界を知りたい。強い奴と戦わせろ</t>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.motivation,0</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>void</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>greed_v1</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>【虚無】帰る場所などない。ここが終着点だ</t>
+          <t>ハッ！ わかりやすくていいぜ。金と権力……地上のクズどもが一生かけて追いまわすゴミ屑だ。だがいいか、ここでは金などただの石ころだ。</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>【虚無】帰る場所などない。ここが終着点だ</t>
+          <t>ハッ！ わかりやすくていいぜ。金と権力……地上のクズどもが一生かけて追いまわすゴミ屑だ。だがいいか、ここでは金などただの石ころだ。</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>pride</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>c4</t>
+          <t>greed_v2</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>【傲慢】この闘技場も、あのドラゴンも、いずれ配下に置いてやる</t>
+          <t>お前が手にするのは、神々すら平伏させる「圧倒的な階位」……。それが欲しけりゃ、他人の内臓を積み上げて階段を作るんだな。</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>【傲慢】この闘技場も、あのドラゴンも、いずれ配下に置いてやる</t>
+          <t>お前が手にするのは、神々すら平伏させる「圧倒的な階位」……。それが欲しけりゃ、他人の内臓を積み上げて階段を作るんだな。</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>drift</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>c5</t>
+          <t>greed_l1</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>【狂人】理由はない</t>
+          <t>ふふ、強欲な魂は好物ですよ。あなたが稼ぐ賞金……その何割を私が手数料としていただくことになるのか、楽しみです。精々、死なずに稼いでくださいね？</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>【狂人】理由はない</t>
+          <t>ふふ、強欲な魂は好物ですよ。あなたが稼ぐ賞金……その何割を私が手数料としていただくことになるのか、楽しみです。精々、死なずに稼いでくださいね？</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>drift</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>cancel</t>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>greed</t>
+          <t>battle</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1173,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.motivation,0</t>
+          <t>chitsii.arena.player.motivation,1</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1185,17 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>greed_v1</t>
+          <t>battle_v1</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>ハッ！ わかりやすくていいぜ。金と権力……地上のクズどもが一生かけて追いまわすゴミ屑だ。だがいいか、ここでは金などただの石ころだ。</t>
+          <t>……チッ、一番厄介な手合いだ。己の限界だと？ 深淵を前にそんなセリフが吐けるか。</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>ハッ！ わかりやすくていいぜ。金と権力……地上のクズどもが一生かけて追いまわすゴミ屑だ。だがいいか、ここでは金などただの石ころだ。</t>
+          <t>……チッ、一番厄介な手合いだ。己の限界だと？ 深淵を前にそんなセリフが吐けるか。</t>
         </is>
       </c>
     </row>
@@ -1177,87 +1207,87 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>greed_v2</t>
+          <t>battle_v2</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>お前が手にするのは、神々すら平伏させる「圧倒的な階位」……。それが欲しけりゃ、他人の内臓を積み上げて階段を作るんだな。</t>
+          <t>いいぜ、お前のその真っ直ぐな瞳が、絶望で濁っていく様を見るのは……</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>お前が手にするのは、神々すら平伏させる「圧倒的な階位」……。それが欲しけりゃ、他人の内臓を積み上げて階段を作るんだな。</t>
+          <t>いいぜ、お前のその真っ直ぐな瞳が、絶望で濁っていく様を見るのは……</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="F47" t="inlineStr">
         <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>battle_v3</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>……かつての俺を見るようで、反吐が出るがな。</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>……かつての俺を見るようで、反吐が出るがな。</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="F48" t="inlineStr">
+        <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>greed_l1</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>ふふ、強欲な魂は好物ですよ。あなたが稼ぐ賞金……その何割を私が手数料としていただくことになるのか、楽しみです。精々、死なずに稼いでくださいね？</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>ふふ、強欲な魂は好物ですよ。あなたが稼ぐ賞金……その何割を私が手数料としていただくことになるのか、楽しみです。精々、死なずに稼いでくださいね？</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>battle_l1</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>……あら。戦うこと自体が目的、ですか。あなたの放つその濃密な「闘気」……少し当てられただけで、サキュバスとしての本能が疼いてしまいます。壊れてしまう前に、その輝きを存分に見せてくださいね。</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>……あら。戦うこと自体が目的、ですか。あなたの放つその濃密な「闘気」……少し当てられただけで、サキュバスとしての本能が疼いてしまいます。壊れてしまう前に、その輝きを存分に見せてくださいね。</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="inlineStr">
         <is>
           <t>ending</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>battle</t>
-        </is>
-      </c>
-    </row>
     <row r="50">
-      <c r="D50" t="inlineStr">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>void</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="D51" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.motivation,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>battle_v1</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>……チッ、一番厄介な手合いだ。己の限界だと？ 深淵を前にそんなセリフが吐けるか。</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>……チッ、一番厄介な手合いだ。己の限界だと？ 深淵を前にそんなセリフが吐けるか。</t>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.motivation,2</t>
         </is>
       </c>
     </row>
@@ -1269,17 +1299,17 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>battle_v2</t>
+          <t>void_v1</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>いいぜ、お前のその真っ直ぐな瞳が、絶望で濁っていく様を見るのは……</t>
+          <t>……（沈黙）フン、訳ありか。だがな小僧、ここは逃げ込むための掃き溜めじゃねえ。生への執着を捨てた奴から死んでいく場所だ。</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>いいぜ、お前のその真っ直ぐな瞳が、絶望で濁っていく様を見るのは……</t>
+          <t>……（沈黙）フン、訳ありか。だがな小僧、ここは逃げ込むための掃き溜めじゃねえ。生への執着を捨てた奴から死んでいく場所だ。</t>
         </is>
       </c>
     </row>
@@ -1291,17 +1321,17 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>battle_v3</t>
+          <t>void_v2</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>……かつての俺を見るようで、反吐が出るがな。</t>
+          <t>……いいか、戦いの中でしか己の輪郭を保てねえってんなら、死に物狂いで剣を振れ。そうすりゃ、その虚無も少しは埋まるかもしれねえぜ。</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>……かつての俺を見るようで、反吐が出るがな。</t>
+          <t>……いいか、戦いの中でしか己の輪郭を保てねえってんなら、死に物狂いで剣を振れ。そうすりゃ、その虚無も少しは埋まるかもしれねえぜ。</t>
         </is>
       </c>
     </row>
@@ -1313,17 +1343,17 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>battle_l1</t>
+          <t>void_l1</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>……あら。戦うこと自体が目的、ですか。あなたの放つその濃密な「闘気」……少し当てられただけで、サキュバスとしての本能が疼いてしまいます。壊れてしまう前に、その輝きを存分に見せてくださいね。</t>
+          <t>……居場所を求めて、わざわざ異次元まで。少し同情してしまいますね。ですが、事務手続きに私情は挟みませんよ？</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>……あら。戦うこと自体が目的、ですか。あなたの放つその濃密な「闘気」……少し当てられただけで、サキュバスとしての本能が疼いてしまいます。壊れてしまう前に、その輝きを存分に見せてくださいね。</t>
+          <t>……居場所を求めて、わざわざ異次元まで。少し同情してしまいますね。ですが、事務手続きに私情は挟みませんよ？</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1367,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>void</t>
+          <t>pride</t>
         </is>
       </c>
     </row>
@@ -1349,29 +1379,14 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.motivation,2</t>
+          <t>chitsii.arena.player.motivation,3</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>void_v1</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>……（沈黙）フン、訳ありか。だがな小僧、ここは逃げ込むための掃き溜めじゃねえ。生への執着を捨てた奴から死んでいく場所だ。</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>……（沈黙）フン、訳ありか。だがな小僧、ここは逃げ込むための掃き溜めじゃねえ。生への執着を捨てた奴から死んでいく場所だ。</t>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
@@ -1383,152 +1398,162 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>void_v2</t>
+          <t>pride_v1</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>……いいか、戦いの中でしか己の輪郭を保てねえってんなら、死に物狂いで剣を振れ。そうすりゃ、その虚無も少しは埋まるかもしれねえぜ。</t>
+          <t>……ハハハ！傑作だ！聞こえたかリリィ？ この新入り、初日から『王』を気取ってやがる！</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>……いいか、戦いの中でしか己の輪郭を保てねえってんなら、死に物狂いで剣を振れ。そうすりゃ、その虚無も少しは埋まるかもしれねえぜ。</t>
+          <t>……ハハハ！傑作だ！聞こえたかリリィ？ この新入り、初日から『王』を気取ってやがる！</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="inlineStr">
         <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>pride_v2</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>だがな、その傲慢さが武器になることもある。神を殺すのはいつだって、己の身の程を知らぬ大馬鹿野郎だ。</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>だがな、その傲慢さが武器になることもある。神を殺すのはいつだって、己の身の程を知らぬ大馬鹿野郎だ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="F61" t="inlineStr">
+        <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>void_l1</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>……居場所を求めて、わざわざ異次元まで。少し同情してしまいますね。ですが、事務手続きに私情は挟みませんよ？</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>……居場所を求めて、わざわざ異次元まで。少し同情してしまいますね。ですが、事務手続きに私情は挟みませんよ？</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" t="inlineStr">
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>pride_l1</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>……まぁ。グランドマスターの座を狙うなんて。ふふ、夢物語でも期待しておきましょう。</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>……まぁ。グランドマスターの座を狙うなんて。ふふ、夢物語でも期待しておきましょう。</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="inlineStr">
         <is>
           <t>ending</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>pride</t>
-        </is>
-      </c>
-    </row>
     <row r="63">
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.motivation,3</t>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>drift</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>shake</t>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>drift_v1</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>……チッ。ヤク中か、それとも脳みそまで混沌に冒されたか。会話もできねえ壊れた玩具に用はねえんだがな。</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>……チッ。ヤク中か、それとも脳みそまで混沌に冒されたか。会話もできねえ壊れた玩具に用はねえんだがな。</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>pride_v1</t>
+          <t>drift_l1</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>……ハハハ！傑作だ！聞こえたかリリィ？ この新入り、初日から『王』を気取ってやがる！</t>
+          <t>あら、私は嫌いではありませんよ？ 理由なき衝動ほど、純粋で美しいものはありません。あなたのその濁った瞳……何を見るのか楽しみです。</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>……ハハハ！傑作だ！聞こえたかリリィ？ この新入り、初日から『王』を気取ってやがる！</t>
+          <t>あら、私は嫌いではありませんよ？ 理由なき衝動ほど、純粋で美しいものはありません。あなたのその濁った瞳……何を見るのか楽しみです。</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>pride_v2</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>だがな、その傲慢さが武器になることもある。神を殺すのはいつだって、己の身の程を知らぬ大馬鹿野郎だ。</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>だがな、その傲慢さが武器になることもある。神を殺すのはいつだって、己の身の程を知らぬ大馬鹿野郎だ。</t>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>pride_l1</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>……まぁ。グランドマスターの座を狙うなんて。ふふ、夢物語でも期待しておきましょう。</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>……まぁ。グランドマスターの座を狙うなんて。ふふ、夢物語でも期待しておきましょう。</t>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>ending</t>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>drift</t>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>end_v1</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>リリィ！ こいつの名前を、最低ランクの「肉屑」の列に書き加えろ！</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>リリィ！ こいつの名前を、最低ランクの「肉屑」の列に書き加えろ！</t>
         </is>
       </c>
     </row>
@@ -1540,104 +1565,89 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>drift_v1</t>
+          <t>end_v2</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>……チッ。ヤク中か、それとも脳みそまで混沌に冒されたか。会話もできねえ壊れた玩具に用はねえんだがな。</t>
+          <t>お前がただの肉塊か、それとも多少は骨のある肉塊か……。このコロシアムが、一億の死をもって証明してやるよ。</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>……チッ。ヤク中か、それとも脳みそまで混沌に冒されたか。会話もできねえ壊れた玩具に用はねえんだがな。</t>
+          <t>お前がただの肉塊か、それとも多少は骨のある肉塊か……。このコロシアムが、一億の死をもって証明してやるよ。</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>drift_l1</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>あら、私は嫌いではありませんよ？ 理由なき衝動ほど、純粋で美しいものはありません。あなたのその濁った瞳……何を見るのか楽しみです。</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>あら、私は嫌いではありませんよ？ 理由なき衝動ほど、純粋で美しいものはありません。あなたのその濁った瞳……何を見るのか楽しみです。</t>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.rank,0</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>ending</t>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>chitsii.arena.rel.lily,30</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>ending</t>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>chitsii.arena.rel.balgas,20</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="D74" t="inlineStr">
         <is>
-          <t>shake</t>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>chitsii.arena.rel.zek,0</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>end_v1</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>リリィ！ こいつの名前を、最低ランクの「肉屑」の列に書き加えろ！</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>リリィ！ こいつの名前を、最低ランクの「肉屑」の列に書き加えろ！</t>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>sukutsu_gladiator,1</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>end_v2</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>お前がただの肉塊か、それとも多少は骨のある肉塊か……。このコロシアムが、一億の死をもって証明してやるよ。</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>お前がただの肉塊か、それとも多少は骨のある肉塊か……。このコロシアムが、一億の死をもって証明してやるよ。</t>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_stage,1</t>
         </is>
       </c>
     </row>
@@ -1649,84 +1659,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.rank,0</t>
+          <t>sukutsu_opening_seen,1</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="D78" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>chitsii.arena.rel.lily,30</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>chitsii.arena.rel.balgas,20</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>chitsii.arena.rel.zek,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>sukutsu_gladiator,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_stage,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>sukutsu_opening_seen,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="D84" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_opening.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_opening.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1666,6 +1666,23 @@
     <row r="78">
       <c r="D78" t="inlineStr">
         <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>complete_quest(01_opening)</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="D79" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_opening.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_opening.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,12 +510,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>(色彩は混濁し、上下左右の感覚が溶けていく。次に足が触れたのは、石畳だ。)</t>
+          <t>(奇妙な場所に足を踏み入れると、あなたの上下左右の感覚が溶けていく。次に足が触れたのは、石畳だ。)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>(色彩は混濁し、上下左右の感覚が溶けていく。次に足が触れたのは、石畳だ。)</t>
+          <t>(奇妙な場所に足を踏み入れると、あなたの上下左右の感覚が溶けていく。次に足が触れたのは、石畳だ。)</t>
         </is>
       </c>
     </row>
@@ -561,38 +561,56 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>(ただ、紫紺の渦を巻く「虚無」が天を覆い、時折、空間の裂け目から巨大な鎖が垂れ下がっている。遠くから響くのは、雷鳴のような喝采。だが、その声には「熱」がない。
-高次元の観客たちが、ただ死を消費するために発する、冷ややかな振動だ。)</t>
+          <t>(ただ、紫紺の渦を巻く「虚無」が天を覆い、時折、空間の裂け目から巨大な触手が垂れ下がっている。)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>(ただ、紫紺の渦を巻く「虚無」が天を覆い、時折、空間の裂け目から巨大な鎖が垂れ下がっている。遠くから響くのは、雷鳴のような喝采。だが、その声には「熱」がない。
-高次元の観客たちが、ただ死を消費するために発する、冷ややかな振動だ。)</t>
+          <t>(ただ、紫紺の渦を巻く「虚無」が天を覆い、時折、空間の裂け目から巨大な触手が垂れ下がっている。)</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>narr3b</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>(ここは**次元の狭間**——世界と世界の隙間に浮かぶ領域。確定した因果律を持たず、時間の流れすら曖昧な「無法地帯」だ。)</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>(ここは**次元の狭間**——世界と世界の隙間に浮かぶ領域。確定した因果律を持たず、時間の流れすら曖昧な「無法地帯」だ。)</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>narr3c</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>(遠くから響くのは、雷鳴のような喝采。だが、観客の姿は見えない。姿の見えない「何か」が、この闘技場を見下ろしている——それだけは感じられる。)</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>(遠くから響くのは、雷鳴のような喝采。だが、観客の姿は見えない。姿の見えない「何か」が、この闘技場を見下ろしている——それだけは感じられる。)</t>
         </is>
       </c>
     </row>
@@ -604,51 +622,31 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>lily1</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>……あら。珍しいこともあるものですね。召喚の儀も、空間の歪みもなしに、この『ヴォイド・コロシアム』に迷い込む『生きた肉』がいるなんて。</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>……あら。珍しいこともあるものですね。召喚の儀も、空間の歪みもなしに、この『ヴォイド・コロシアム』に迷い込む『生きた肉』がいるなんて。</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>lily2</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>お客様、それとも……新たな『商品』かしら？ここは境界の終わり、そして絶望の始まり。</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>お客様、それとも……新たな『商品』かしら？ここは境界の終わり、そして絶望の始まり。</t>
         </is>
       </c>
     </row>
@@ -660,269 +658,295 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
+          <t>lily1</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>……あら。召喚の儀も、空間の歪みもなしに、この『ヴォイド・コロシアム』に迷い込む『生きた肉』がいるなんて。</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>……あら。召喚の儀も、空間の歪みもなしに、この『ヴォイド・コロシアム』に迷い込む『生きた肉』がいるなんて。</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>lily1b</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>……おかしいですね。普通、この狭間に落ちた者は、イルヴァとの繋がりを失うはずなのに。あなた、まだ『帰り道』を持っている……？ イルヴァの神々の加護でもあるのかしら。</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>……おかしいですね。普通、この狭間に落ちた者は、イルヴァとの繋がりを失うはずなのに。あなた、まだ『帰り道』を持っている……？ イルヴァの神々の加護でもあるのかしら。</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>lily2</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>まあ、いいでしょう。お客様、それとも……新たな『商品』かしら？ここは次元の狭間、そして絶望の始まり。</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>まあ、いいでしょう。お客様、それとも……新たな『商品』かしら？ここは次元の狭間、そして絶望の始まり。</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>lily3</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>あなたがどこから来たのかは問いません。入られた方は皆、あそこにいる「飲んだくれ」に話を通すのが、ここの作法ですから。</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>あなたがどこから来たのかは問いません。入られた方は皆、あそこにいる「飲んだくれ」に話を通すのが、ここの作法ですから。</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="D18" t="inlineStr">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>……あなたは自由に出入りできるようですけれど、ここの『仕組み』はあそこにいる「飲んだくれ」に聞くのが作法ですから。</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>……あなたは自由に出入りできるようですけれど、ここの『仕組み』はあそこにいる「飲んだくれ」に聞くのが作法ですから。</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="D21" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="D19" t="inlineStr">
+    <row r="22">
+      <c r="D22" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="D20" t="inlineStr">
+    <row r="23">
+      <c r="D23" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="F21" t="inlineStr">
+    <row r="24">
+      <c r="F24" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>vargus1</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>……ケッ、シケた面してやがる。おい、サキュバス。そんなひょろいガキ、鑑定するまでもねえ。</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>……ケッ、シケた面してやがる。おい、サキュバス。そんなひょろいガキ、鑑定するまでもねえ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="F22" t="inlineStr">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>これはこれは。ちょっとばかり魔物に追われて、運悪く次元の割れ目に滑り落ちた『迷い犬』か？</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>これはこれは。ちょっとばかり魔物に追われて、運悪く次元の割れ目に滑り落ちた『迷い犬』か？</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>vargus1b</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>……お前、まだイルヴァの神々との繋がりが切れてねえな。こいつは珍しい。普通、この狭間に落ちりゃ、どんな加護も消し飛ぶんだが。</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>……お前、まだイルヴァの神々との繋がりが切れてねえな。こいつは珍しい。普通、この狭間に落ちりゃ、どんな加護も消し飛ぶんだが。</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
         <is>
           <t>vargus2</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>どうせ地上でちょっとばかり魔物に追われて、運悪く次元の割れ目に滑り落ちただけの「迷い犬」だ。おい、小僧。ここは選ばれた狂人どもが、神々の暇つぶしのために殺し合う場所だ。</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>どうせ地上でちょっとばかり魔物に追われて、運悪く次元の割れ目に滑り落ちただけの「迷い犬」だ。おい、小僧。ここは選ばれた狂人どもが、神々の暇つぶしのために殺し合う場所だ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="F23" t="inlineStr">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>ここは、選ばれた狂人どもが、『観客』の暇つぶしのために、殺し合うための場所だ。お前は『帰れる』んだろう？ なら、さっさと帰んな。ここに留まる理由なんざ、正気の奴にはねえはずだ。</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ここは、選ばれた狂人どもが、『観客』の暇つぶしのために、殺し合うための場所だ。お前は『帰れる』んだろう？ なら、さっさと帰んな。ここに留まる理由なんざ、正気の奴にはねえはずだ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="F27" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>vargus3</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>そう、いわば闘技場だ。故郷が恋しいなら、隅で丸まって震えてな。運が良ければ、次の次元の潮流でお前の死体くらいは地上に打ち上げられるかもしれねえぜ。
-……あ？ なんだその目は。お前になにができるってんだ？</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>そう、いわば闘技場だ。故郷が恋しいなら、隅で丸まって震えてな。運が良ければ、次の次元の潮流でお前の死体くらいは地上に打ち上げられるかもしれねえぜ。
-……あ？ なんだその目は。お前になにができるってんだ？</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="inlineStr">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>……あ？ なんだその目は？ 言いたいことでもあるのか？</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>……あ？ なんだその目は？ 言いたいことでもあるのか？</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
         <is>
           <t>vargus_react</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>c_resolve_fight</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>腕には自信があるし、闘技場に興味もある</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>腕には自信があるし、闘技場に興味もある</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="inlineStr">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>腕っぷしには自信がある。闘技場に参加したい</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>腕っぷしには自信がある。闘技場に参加したい</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
         <is>
           <t>vargus_react</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>c_resolve_magic</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>ここで魔法の腕試しをしたい</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ここで魔法の腕試しをしたい</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>vargus_react</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
         <is>
           <t>c_resolve_survive</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>頼もしい仲間がいる</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>頼もしい仲間がいる</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>vargus_react</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>c_resolve_drift</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>得意なことはない</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>得意なことはない</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>vargus_react</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>vargus_react1</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">……ハッ、そうかよ！ </t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">……ハッ、そうかよ！ </t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>vargus_react2</t>
-        </is>
-      </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>おまえのクソ度胸、安酒のツマミくらいにはなりそうだ。……だが、ただの駒で終わるか、名を刻むかはお前次第だ。
-聞かせろ、お前は何のために戦う？</t>
+          <t>心強い仲間と一緒なら怖くはない</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>おまえのクソ度胸、安酒のツマミくらいにはなりそうだ。……だが、ただの駒で終わるか、名を刻むかはお前次第だ。
-聞かせろ、お前は何のために戦う？</t>
+          <t>心強い仲間と一緒なら怖くはない</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>greed</t>
+          <t>vargus_react</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -932,248 +956,265 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>c_resolve_drift</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>【強欲】富と名声、そして力が欲しい</t>
+          <t>観光がてら、試合に参加したい</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>【強欲】富と名声、そして力が欲しい</t>
+          <t>観光がてら、試合に参加したい</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>battle</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>c2</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>【求道】己の限界を知りたい。強い奴と戦わせろ</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>【求道】己の限界を知りたい。強い奴と戦わせろ</t>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>vargus_react</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>void</t>
-        </is>
-      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>c3</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>【虚無】帰る場所などない。ここが終着点だ</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>【虚無】帰る場所などない。ここが終着点だ</t>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>pride</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>c4</t>
+          <t>vargus_react1</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>【傲慢】この闘技場も、あのドラゴンも、いずれ配下に置いてやる</t>
+          <t>……ハッ、正気か？ 帰れるのに、自分の意志でこの地獄の底に留まりてえと言いやがったか。</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>【傲慢】この闘技場も、あのドラゴンも、いずれ配下に置いてやる</t>
+          <t>……ハッ、正気か？ 帰れるのに、自分の意志でこの地獄の底に留まりてえと言いやがったか。</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>drift</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>c5</t>
+          <t>vargus_react2</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>【狂人】理由はない</t>
+          <t>いいぜ。囚われた奴らが生き残るために戦うのとは訳が違う。『選んで』来る奴は、最高に面白いか、最高に馬鹿か、どっちかだ。
+聞かせろ、お前は何のために戦う？</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>【狂人】理由はない</t>
+          <t>いいぜ。囚われた奴らが生き残るために戦うのとは訳が違う。『選んで』来る奴は、最高に面白いか、最高に馬鹿か、どっちかだ。
+聞かせろ、お前は何のために戦う？</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
+          <t>greed</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>【強欲】富と名声、そして力が欲しい</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>【強欲】富と名声、そして力が欲しい</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>battle</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>【求道】己の限界を知りたい。強い奴と戦わせろ</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>【求道】己の限界を知りたい。強い奴と戦わせろ</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>void</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>【虚無】帰る場所などない。ここが終着点だ</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>【虚無】帰る場所などない。ここが終着点だ</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>pride</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>【傲慢】この闘技場も、あのドラゴンも、いずれ配下に置いてやる</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>【傲慢】この闘技場も、あのドラゴンも、いずれ配下に置いてやる</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="inlineStr">
+        <is>
           <t>drift</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>c5</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>【狂人】理由はない</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>【狂人】理由はない</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>drift</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>cancel</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>greed</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="D38" t="inlineStr">
+    <row r="43">
+      <c r="D43" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>chitsii.arena.player.motivation,0</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="F39" t="inlineStr">
+    <row r="44">
+      <c r="F44" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>greed_v1</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>ハッ！ わかりやすくていいぜ。金と権力……地上のクズどもが一生かけて追いまわすゴミ屑だ。だがいいか、ここでは金などただの石ころだ。</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>ハッ！ わかりやすくていいぜ。金と権力……地上のクズどもが一生かけて追いまわすゴミ屑だ。だがいいか、ここでは金などただの石ころだ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>greed_v2</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>お前が手にするのは、神々すら平伏させる「圧倒的な階位」……。それが欲しけりゃ、他人の内臓を積み上げて階段を作るんだな。</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>お前が手にするのは、神々すら平伏させる「圧倒的な階位」……。それが欲しけりゃ、他人の内臓を積み上げて階段を作るんだな。</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>greed_l1</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>ふふ、強欲な魂は好物ですよ。あなたが稼ぐ賞金……その何割を私が手数料としていただくことになるのか、楽しみです。精々、死なずに稼いでくださいね？</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>ふふ、強欲な魂は好物ですよ。あなたが稼ぐ賞金……その何割を私が手数料としていただくことになるのか、楽しみです。精々、死なずに稼いでくださいね？</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>battle</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.motivation,1</t>
         </is>
       </c>
     </row>
@@ -1185,109 +1226,109 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>battle_v1</t>
+          <t>greed_v2</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>……チッ、一番厄介な手合いだ。己の限界だと？ 深淵を前にそんなセリフが吐けるか。</t>
+          <t>お前が手にするのは、神々すら平伏させる「圧倒的な階位」……。それが欲しけりゃ、他人の内臓を積み上げて階段を作るんだな。</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>……チッ、一番厄介な手合いだ。己の限界だと？ 深淵を前にそんなセリフが吐けるか。</t>
+          <t>お前が手にするのは、神々すら平伏させる「圧倒的な階位」……。それが欲しけりゃ、他人の内臓を積み上げて階段を作るんだな。</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="F46" t="inlineStr">
         <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>greed_l1</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>ふふ、強欲な魂は好物ですよ。あなたが稼ぐ賞金……その何割を私が手数料としていただくことになるのか、楽しみです。精々、死なずに稼いでくださいね？</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ふふ、強欲な魂は好物ですよ。あなたが稼ぐ賞金……その何割を私が手数料としていただくことになるのか、楽しみです。精々、死なずに稼いでくださいね？</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ending</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>battle</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.motivation,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="F50" t="inlineStr">
+        <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>battle_v1</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>……チッ、一番厄介な手合いだ。己の限界だと？ 深淵を前にそんなセリフが吐けるか。</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>……チッ、一番厄介な手合いだ。己の限界だと？ 深淵を前にそんなセリフが吐けるか。</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
         <is>
           <t>battle_v2</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>いいぜ、お前のその真っ直ぐな瞳が、絶望で濁っていく様を見るのは……</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>いいぜ、お前のその真っ直ぐな瞳が、絶望で濁っていく様を見るのは……</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>battle_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>……かつての俺を見るようで、反吐が出るがな。</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>……かつての俺を見るようで、反吐が出るがな。</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>battle_l1</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>……あら。戦うこと自体が目的、ですか。あなたの放つその濃密な「闘気」……少し当てられただけで、サキュバスとしての本能が疼いてしまいます。壊れてしまう前に、その輝きを存分に見せてくださいね。</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>……あら。戦うこと自体が目的、ですか。あなたの放つその濃密な「闘気」……少し当てられただけで、サキュバスとしての本能が疼いてしまいます。壊れてしまう前に、その輝きを存分に見せてくださいね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>void</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.motivation,2</t>
         </is>
       </c>
     </row>
@@ -1299,174 +1340,164 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>void_v1</t>
+          <t>battle_v3</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>……（沈黙）フン、訳ありか。だがな小僧、ここは逃げ込むための掃き溜めじゃねえ。生への執着を捨てた奴から死んでいく場所だ。</t>
+          <t>……かつての俺を見るようで、反吐が出るがな。</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>……（沈黙）フン、訳ありか。だがな小僧、ここは逃げ込むための掃き溜めじゃねえ。生への執着を捨てた奴から死んでいく場所だ。</t>
+          <t>……かつての俺を見るようで、反吐が出るがな。</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="inlineStr">
         <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>battle_l1</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>……あら。戦うこと自体が目的、ですか。あなたの放つその濃密な「闘気」……少し当てられただけで、サキュバスとしての本能が疼いてしまいます。壊れてしまう前に、その輝きを存分に見せてくださいね。</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>……あら。戦うこと自体が目的、ですか。あなたの放つその濃密な「闘気」……少し当てられただけで、サキュバスとしての本能が疼いてしまいます。壊れてしまう前に、その輝きを存分に見せてくださいね。</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ending</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>void</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.motivation,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="F57" t="inlineStr">
+        <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>void_v1</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>……（沈黙）フン、訳ありか。だがな小僧、ここは逃げ込むための掃き溜めじゃねえ。生への執着を捨てた奴から死んでいく場所だ。</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>……（沈黙）フン、訳ありか。だがな小僧、ここは逃げ込むための掃き溜めじゃねえ。生への執着を捨てた奴から死んでいく場所だ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
         <is>
           <t>void_v2</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>……いいか、戦いの中でしか己の輪郭を保てねえってんなら、死に物狂いで剣を振れ。そうすりゃ、その虚無も少しは埋まるかもしれねえぜ。</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>……いいか、戦いの中でしか己の輪郭を保てねえってんなら、死に物狂いで剣を振れ。そうすりゃ、その虚無も少しは埋まるかもしれねえぜ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>void_l1</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>……居場所を求めて、わざわざ異次元まで。少し同情してしまいますね。ですが、事務手続きに私情は挟みませんよ？</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>……居場所を求めて、わざわざ異次元まで。少し同情してしまいますね。ですが、事務手続きに私情は挟みませんよ？</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>pride</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.motivation,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>pride_v1</t>
+          <t>void_l1</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>……ハハハ！傑作だ！聞こえたかリリィ？ この新入り、初日から『王』を気取ってやがる！</t>
+          <t>……居場所を求めて、わざわざ異次元まで。少し同情してしまいますね。ですが、事務手続きに私情は挟みませんよ？</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>……ハハハ！傑作だ！聞こえたかリリィ？ この新入り、初日から『王』を気取ってやがる！</t>
+          <t>……居場所を求めて、わざわざ異次元まで。少し同情してしまいますね。ですが、事務手続きに私情は挟みませんよ？</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>pride_v2</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>だがな、その傲慢さが武器になることもある。神を殺すのはいつだって、己の身の程を知らぬ大馬鹿野郎だ。</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>だがな、その傲慢さが武器になることもある。神を殺すのはいつだって、己の身の程を知らぬ大馬鹿野郎だ。</t>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>pride_l1</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>……まぁ。グランドマスターの座を狙うなんて。ふふ、夢物語でも期待しておきましょう。</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>……まぁ。グランドマスターの座を狙うなんて。ふふ、夢物語でも期待しておきましょう。</t>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>pride</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>ending</t>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.motivation,3</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>drift</t>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
@@ -1478,60 +1509,75 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>drift_v1</t>
+          <t>pride_v1</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>……チッ。ヤク中か、それとも脳みそまで混沌に冒されたか。会話もできねえ壊れた玩具に用はねえんだがな。</t>
+          <t>……ハハハ！傑作だ！聞こえたかリリィ？ この新入り、初日から『王』を気取ってやがる！</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>……チッ。ヤク中か、それとも脳みそまで混沌に冒されたか。会話もできねえ壊れた玩具に用はねえんだがな。</t>
+          <t>……ハハハ！傑作だ！聞こえたかリリィ？ この新入り、初日から『王』を気取ってやがる！</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="inlineStr">
         <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>pride_v2</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>だがな、その傲慢さが武器になることもある。神を殺すのはいつだって、己の身の程を知らぬ大馬鹿野郎だ。</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>だがな、その傲慢さが武器になることもある。神を殺すのはいつだって、己の身の程を知らぬ大馬鹿野郎だ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="F66" t="inlineStr">
+        <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>drift_l1</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>あら、私は嫌いではありませんよ？ 理由なき衝動ほど、純粋で美しいものはありません。あなたのその濁った瞳……何を見るのか楽しみです。</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>あら、私は嫌いではありませんよ？ 理由なき衝動ほど、純粋で美しいものはありません。あなたのその濁った瞳……何を見るのか楽しみです。</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" t="inlineStr">
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>pride_l1</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>……まぁ。グランドマスターの座を狙うなんて。ふふ、夢物語でも期待しておきましょう。</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>……まぁ。グランドマスターの座を狙うなんて。ふふ、夢物語でも期待しておきましょう。</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="inlineStr">
         <is>
           <t>ending</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
     <row r="68">
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>shake</t>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>drift</t>
         </is>
       </c>
     </row>
@@ -1543,99 +1589,104 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>end_v1</t>
+          <t>drift_v1</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>リリィ！ こいつの名前を、最低ランクの「肉屑」の列に書き加えろ！</t>
+          <t>……チッ。ヤク中か、それとも脳みそまで混沌に冒されたか。会話もできねえ壊れた玩具に用はねえんだがな。</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>リリィ！ こいつの名前を、最低ランクの「肉屑」の列に書き加えろ！</t>
+          <t>……チッ。ヤク中か、それとも脳みそまで混沌に冒されたか。会話もできねえ壊れた玩具に用はねえんだがな。</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>end_v2</t>
+          <t>drift_l1</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>お前がただの肉塊か、それとも多少は骨のある肉塊か……。このコロシアムが、一億の死をもって証明してやるよ。</t>
+          <t>あら、私は嫌いではありませんよ？ 理由なき衝動ほど、純粋で美しいものはありません。あなたのその濁った瞳……何を見るのか楽しみです。</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>お前がただの肉塊か、それとも多少は骨のある肉塊か……。このコロシアムが、一億の死をもって証明してやるよ。</t>
+          <t>あら、私は嫌いではありませんよ？ 理由なき衝動ほど、純粋で美しいものはありません。あなたのその濁った瞳……何を見るのか楽しみです。</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.rank,0</t>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>chitsii.arena.rel.lily,30</t>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="D73" t="inlineStr">
         <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>chitsii.arena.rel.balgas,20</t>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>chitsii.arena.rel.zek,0</t>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>end_v1</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>リリィ！ こいつの名前を、剣闘士の列に書き加えろ！</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>リリィ！ こいつの名前を、剣闘士の列に書き加えろ！</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>sukutsu_gladiator,1</t>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>end_v2</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>お前がただの肉塊か、それとも多少は骨のある肉塊か……。このコロシアムで証明してみせな。</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>お前がただの肉塊か、それとも多少は骨のある肉塊か……。このコロシアムで証明してみせな。</t>
         </is>
       </c>
     </row>
@@ -1647,7 +1698,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>sukutsu_arena_stage,1</t>
+          <t>chitsii.arena.player.rank,0</t>
         </is>
       </c>
     </row>
@@ -1659,29 +1710,89 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>sukutsu_opening_seen,1</t>
+          <t>chitsii.arena.rel.lily,30</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="D78" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>setFlag</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>complete_quest(01_opening)</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>chitsii.arena.rel.balgas,20</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="D79" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>chitsii.arena.rel.zek,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>sukutsu_gladiator,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_stage,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>sukutsu_opening_seen,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>complete_quest(01_opening)</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="D84" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_opening.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_opening.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,38 +615,68 @@
       </c>
     </row>
     <row r="14">
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>lily1</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>……あら。召喚の儀も、空間の歪みもなしに、この『ヴォイド・コロシアム』に迷い込む『生きた肉』がいるなんて。</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>……あら。召喚の儀も、空間の歪みもなしに、この『ヴォイド・コロシアム』に迷い込む『生きた肉』がいるなんて。</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>lily1b</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>……おかしいですね。普通、この狭間に落ちた者は、イルヴァとの繋がりを失うはずなのに。あなた、まだ『帰り道』を持っている……？ イルヴァの神々の加護でもあるのかしら。</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>……おかしいですね。普通、この狭間に落ちた者は、イルヴァとの繋がりを失うはずなのに。あなた、まだ『帰り道』を持っている……？ イルヴァの神々の加護でもあるのかしら。</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>lily2</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>まあ、いいでしょう。お客様、それとも……新たな『商品』かしら？ここは次元の狭間、そして絶望の始まり。</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>まあ、いいでしょう。お客様、それとも……新たな『商品』かしら？ここは次元の狭間、そして絶望の始まり。</t>
         </is>
       </c>
     </row>
@@ -658,268 +688,280 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>lily1</t>
+          <t>lily3</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>……あら。召喚の儀も、空間の歪みもなしに、この『ヴォイド・コロシアム』に迷い込む『生きた肉』がいるなんて。</t>
+          <t>……あなたは自由に出入りできるようですけれど、ここの『仕組み』はあそこにいる「飲んだくれ」に聞くのが作法ですから。</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>……あら。召喚の儀も、空間の歪みもなしに、この『ヴォイド・コロシアム』に迷い込む『生きた肉』がいるなんて。</t>
+          <t>……あなたは自由に出入りできるようですけれど、ここの『仕組み』はあそこにいる「飲んだくれ」に聞くのが作法ですから。</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="F18" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>lily1b</t>
+          <t>vargus1</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>……おかしいですね。普通、この狭間に落ちた者は、イルヴァとの繋がりを失うはずなのに。あなた、まだ『帰り道』を持っている……？ イルヴァの神々の加護でもあるのかしら。</t>
+          <t>これはこれは。ちょっとばかり魔物に追われて、運悪く次元の割れ目に滑り落ちた『迷い犬』か？</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>……おかしいですね。普通、この狭間に落ちた者は、イルヴァとの繋がりを失うはずなのに。あなた、まだ『帰り道』を持っている……？ イルヴァの神々の加護でもあるのかしら。</t>
+          <t>これはこれは。ちょっとばかり魔物に追われて、運悪く次元の割れ目に滑り落ちた『迷い犬』か？</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="F19" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>lily2</t>
+          <t>vargus1b</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>まあ、いいでしょう。お客様、それとも……新たな『商品』かしら？ここは次元の狭間、そして絶望の始まり。</t>
+          <t>……お前、まだイルヴァの神々との繋がりが切れてねえな。こいつは珍しい。普通、この狭間に落ちりゃ、どんな加護も消し飛ぶんだが。</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>まあ、いいでしょう。お客様、それとも……新たな『商品』かしら？ここは次元の狭間、そして絶望の始まり。</t>
+          <t>……お前、まだイルヴァの神々との繋がりが切れてねえな。こいつは珍しい。普通、この狭間に落ちりゃ、どんな加護も消し飛ぶんだが。</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="F20" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>lily3</t>
+          <t>vargus2</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>……あなたは自由に出入りできるようですけれど、ここの『仕組み』はあそこにいる「飲んだくれ」に聞くのが作法ですから。</t>
+          <t>ここは、選ばれた狂人どもが、『観客』の暇つぶしのために、殺し合うための場所だ。お前は『帰れる』んだろう？ なら、さっさと帰んな。ここに留まる理由なんざ、正気の奴にはねえはずだ。</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>……あなたは自由に出入りできるようですけれど、ここの『仕組み』はあそこにいる「飲んだくれ」に聞くのが作法ですから。</t>
+          <t>ここは、選ばれた狂人どもが、『観客』の暇つぶしのために、殺し合うための場所だ。お前は『帰れる』んだろう？ なら、さっさと帰んな。ここに留まる理由なんざ、正気の奴にはねえはずだ。</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>vargus3</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>……あ？ なんだその目は？ 言いたいことでもあるのか？</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>……あ？ なんだその目は？ 言いたいことでもあるのか？</t>
         </is>
       </c>
     </row>
     <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>vargus_react</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>c_resolve_fight</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>腕っぷしには自信がある。闘技場に参加したい</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>腕っぷしには自信がある。闘技場に参加したい</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>vargus_react</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>c_resolve_magic</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>ここで魔法の腕試しをしたい</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ここで魔法の腕試しをしたい</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>vargus_react</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>c_resolve_survive</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>心強い仲間と一緒なら怖くはない</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>心強い仲間と一緒なら怖くはない</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>vargus_react</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>c_resolve_drift</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>観光がてら、試合に参加したい</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>観光がてら、試合に参加したい</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>vargus_react</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>shake</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="F28" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-    </row>
-    <row r="23">
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="F24" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>vargus_react1</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>……ハッ、正気か？ 帰れるのに、自分の意志でこの地獄の底に留まりてえと言いやがったか。</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>……ハッ、正気か？ 帰れるのに、自分の意志でこの地獄の底に留まりてえと言いやがったか。</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="F29" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>vargus1</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>これはこれは。ちょっとばかり魔物に追われて、運悪く次元の割れ目に滑り落ちた『迷い犬』か？</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>これはこれは。ちょっとばかり魔物に追われて、運悪く次元の割れ目に滑り落ちた『迷い犬』か？</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>vargus1b</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>……お前、まだイルヴァの神々との繋がりが切れてねえな。こいつは珍しい。普通、この狭間に落ちりゃ、どんな加護も消し飛ぶんだが。</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>……お前、まだイルヴァの神々との繋がりが切れてねえな。こいつは珍しい。普通、この狭間に落ちりゃ、どんな加護も消し飛ぶんだが。</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>vargus2</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>ここは、選ばれた狂人どもが、『観客』の暇つぶしのために、殺し合うための場所だ。お前は『帰れる』んだろう？ なら、さっさと帰んな。ここに留まる理由なんざ、正気の奴にはねえはずだ。</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>ここは、選ばれた狂人どもが、『観客』の暇つぶしのために、殺し合うための場所だ。お前は『帰れる』んだろう？ なら、さっさと帰んな。ここに留まる理由なんざ、正気の奴にはねえはずだ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>vargus3</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>……あ？ なんだその目は？ 言いたいことでもあるのか？</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>……あ？ なんだその目は？ 言いたいことでもあるのか？</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>vargus_react</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>c_resolve_fight</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>腕っぷしには自信がある。闘技場に参加したい</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>腕っぷしには自信がある。闘技場に参加したい</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>vargus_react</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>c_resolve_magic</t>
+          <t>vargus_react2</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>ここで魔法の腕試しをしたい</t>
+          <t>いいぜ。囚われた奴らが生き残るために戦うのとは訳が違う。『選んで』来る奴は、最高に面白いか、最高に馬鹿か、どっちかだ。
+聞かせろ、お前は何のために戦う？</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>ここで魔法の腕試しをしたい</t>
+          <t>いいぜ。囚われた奴らが生き残るために戦うのとは訳が違う。『選んで』来る奴は、最高に面白いか、最高に馬鹿か、どっちかだ。
+聞かせろ、お前は何のために戦う？</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>vargus_react</t>
+          <t>greed</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -929,24 +971,24 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>c_resolve_survive</t>
+          <t>c1</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>心強い仲間と一緒なら怖くはない</t>
+          <t>【強欲】富と名声、そして力が欲しい</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>心強い仲間と一緒なら怖くはない</t>
+          <t>【強欲】富と名声、そして力が欲しい</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>vargus_react</t>
+          <t>battle</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -956,231 +998,209 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>c_resolve_drift</t>
+          <t>c2</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>観光がてら、試合に参加したい</t>
+          <t>【求道】己の限界を知りたい。強い奴と戦わせろ</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>観光がてら、試合に参加したい</t>
+          <t>【求道】己の限界を知りたい。強い奴と戦わせろ</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>vargus_react</t>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>void</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>【虚無】帰る場所などない。ここが終着点だ</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>【虚無】帰る場所などない。ここが終着点だ</t>
         </is>
       </c>
     </row>
     <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>pride</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>shake</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>【傲慢】この闘技場も、あのドラゴンも、いずれ配下に置いてやる</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>【傲慢】この闘技場も、あのドラゴンも、いずれ配下に置いてやる</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="F34" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>drift</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>c5</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>【狂人】理由はない</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>【狂人】理由はない</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>drift</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>greed</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.motivation,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="F38" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>vargus_react1</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>……ハッ、正気か？ 帰れるのに、自分の意志でこの地獄の底に留まりてえと言いやがったか。</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>……ハッ、正気か？ 帰れるのに、自分の意志でこの地獄の底に留まりてえと言いやがったか。</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="F35" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>greed_v1</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>ハッ！ わかりやすくていいぜ。金と権力……地上のクズどもが一生かけて追いまわすゴミ屑だ。だがいいか、ここでは金などただの石ころだ。</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ハッ！ わかりやすくていいぜ。金と権力……地上のクズどもが一生かけて追いまわすゴミ屑だ。だがいいか、ここでは金などただの石ころだ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="F39" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>vargus_react2</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>いいぜ。囚われた奴らが生き残るために戦うのとは訳が違う。『選んで』来る奴は、最高に面白いか、最高に馬鹿か、どっちかだ。
-聞かせろ、お前は何のために戦う？</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>いいぜ。囚われた奴らが生き残るために戦うのとは訳が違う。『選んで』来る奴は、最高に面白いか、最高に馬鹿か、どっちかだ。
-聞かせろ、お前は何のために戦う？</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>greed</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>c1</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>【強欲】富と名声、そして力が欲しい</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>【強欲】富と名声、そして力が欲しい</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>battle</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>c2</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>【求道】己の限界を知りたい。強い奴と戦わせろ</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>【求道】己の限界を知りたい。強い奴と戦わせろ</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>void</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>c3</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>【虚無】帰る場所などない。ここが終着点だ</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>【虚無】帰る場所などない。ここが終着点だ</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>pride</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>c4</t>
+          <t>greed_v2</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>【傲慢】この闘技場も、あのドラゴンも、いずれ配下に置いてやる</t>
+          <t>お前が手にするのは、神々すら平伏させる「圧倒的な階位」……。それが欲しけりゃ、他人の内臓を積み上げて階段を作るんだな。</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>【傲慢】この闘技場も、あのドラゴンも、いずれ配下に置いてやる</t>
+          <t>お前が手にするのは、神々すら平伏させる「圧倒的な階位」……。それが欲しけりゃ、他人の内臓を積み上げて階段を作るんだな。</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>drift</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>c5</t>
+          <t>greed_l1</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>【狂人】理由はない</t>
+          <t>ふふ、強欲な魂は好物ですよ。あなたが稼ぐ賞金……その何割を私が手数料としていただくことになるのか、楽しみです。精々、死なずに稼いでくださいね？</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>【狂人】理由はない</t>
+          <t>ふふ、強欲な魂は好物ですよ。あなたが稼ぐ賞金……その何割を私が手数料としていただくことになるのか、楽しみです。精々、死なずに稼いでくださいね？</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>drift</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>cancel</t>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>greed</t>
+          <t>battle</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1212,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.motivation,0</t>
+          <t>chitsii.arena.player.motivation,1</t>
         </is>
       </c>
     </row>
@@ -1204,17 +1224,17 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>greed_v1</t>
+          <t>battle_v1</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>ハッ！ わかりやすくていいぜ。金と権力……地上のクズどもが一生かけて追いまわすゴミ屑だ。だがいいか、ここでは金などただの石ころだ。</t>
+          <t>……チッ、一番厄介な手合いだ。己の限界だと？ 深淵を前にそんなセリフが吐けるか。</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>ハッ！ わかりやすくていいぜ。金と権力……地上のクズどもが一生かけて追いまわすゴミ屑だ。だがいいか、ここでは金などただの石ころだ。</t>
+          <t>……チッ、一番厄介な手合いだ。己の限界だと？ 深淵を前にそんなセリフが吐けるか。</t>
         </is>
       </c>
     </row>
@@ -1226,87 +1246,87 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>greed_v2</t>
+          <t>battle_v2</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>お前が手にするのは、神々すら平伏させる「圧倒的な階位」……。それが欲しけりゃ、他人の内臓を積み上げて階段を作るんだな。</t>
+          <t>いいぜ、お前のその真っ直ぐな瞳が、絶望で濁っていく様を見るのは……</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>お前が手にするのは、神々すら平伏させる「圧倒的な階位」……。それが欲しけりゃ、他人の内臓を積み上げて階段を作るんだな。</t>
+          <t>いいぜ、お前のその真っ直ぐな瞳が、絶望で濁っていく様を見るのは……</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="F46" t="inlineStr">
         <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>battle_v3</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>……かつての俺を見るようで、反吐が出るがな。</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>……かつての俺を見るようで、反吐が出るがな。</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" t="inlineStr">
+        <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>greed_l1</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>ふふ、強欲な魂は好物ですよ。あなたが稼ぐ賞金……その何割を私が手数料としていただくことになるのか、楽しみです。精々、死なずに稼いでくださいね？</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>ふふ、強欲な魂は好物ですよ。あなたが稼ぐ賞金……その何割を私が手数料としていただくことになるのか、楽しみです。精々、死なずに稼いでくださいね？</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" t="inlineStr">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>battle_l1</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>……あら。戦うこと自体が目的、ですか。あなたの放つその濃密な「闘気」……少し当てられただけで、サキュバスとしての本能が疼いてしまいます。壊れてしまう前に、その輝きを存分に見せてくださいね。</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>……あら。戦うこと自体が目的、ですか。あなたの放つその濃密な「闘気」……少し当てられただけで、サキュバスとしての本能が疼いてしまいます。壊れてしまう前に、その輝きを存分に見せてくださいね。</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="inlineStr">
         <is>
           <t>ending</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>battle</t>
-        </is>
-      </c>
-    </row>
     <row r="49">
-      <c r="D49" t="inlineStr">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>void</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="D50" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.motivation,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>battle_v1</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>……チッ、一番厄介な手合いだ。己の限界だと？ 深淵を前にそんなセリフが吐けるか。</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>……チッ、一番厄介な手合いだ。己の限界だと？ 深淵を前にそんなセリフが吐けるか。</t>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.motivation,2</t>
         </is>
       </c>
     </row>
@@ -1318,17 +1338,17 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>battle_v2</t>
+          <t>void_v1</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>いいぜ、お前のその真っ直ぐな瞳が、絶望で濁っていく様を見るのは……</t>
+          <t>……（沈黙）フン、訳ありか。だがな小僧、ここは逃げ込むための掃き溜めじゃねえ。生への執着を捨てた奴から死んでいく場所だ。</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>いいぜ、お前のその真っ直ぐな瞳が、絶望で濁っていく様を見るのは……</t>
+          <t>……（沈黙）フン、訳ありか。だがな小僧、ここは逃げ込むための掃き溜めじゃねえ。生への執着を捨てた奴から死んでいく場所だ。</t>
         </is>
       </c>
     </row>
@@ -1340,17 +1360,17 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>battle_v3</t>
+          <t>void_v2</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>……かつての俺を見るようで、反吐が出るがな。</t>
+          <t>……いいか、戦いの中でしか己の輪郭を保てねえってんなら、死に物狂いで剣を振れ。そうすりゃ、その虚無も少しは埋まるかもしれねえぜ。</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>……かつての俺を見るようで、反吐が出るがな。</t>
+          <t>……いいか、戦いの中でしか己の輪郭を保てねえってんなら、死に物狂いで剣を振れ。そうすりゃ、その虚無も少しは埋まるかもしれねえぜ。</t>
         </is>
       </c>
     </row>
@@ -1362,17 +1382,17 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>battle_l1</t>
+          <t>void_l1</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>……あら。戦うこと自体が目的、ですか。あなたの放つその濃密な「闘気」……少し当てられただけで、サキュバスとしての本能が疼いてしまいます。壊れてしまう前に、その輝きを存分に見せてくださいね。</t>
+          <t>……居場所を求めて、わざわざ異次元まで。少し同情してしまいますね。ですが、事務手続きに私情は挟みませんよ？</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>……あら。戦うこと自体が目的、ですか。あなたの放つその濃密な「闘気」……少し当てられただけで、サキュバスとしての本能が疼いてしまいます。壊れてしまう前に、その輝きを存分に見せてくださいね。</t>
+          <t>……居場所を求めて、わざわざ異次元まで。少し同情してしまいますね。ですが、事務手続きに私情は挟みませんよ？</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1406,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>void</t>
+          <t>pride</t>
         </is>
       </c>
     </row>
@@ -1398,29 +1418,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.motivation,2</t>
+          <t>chitsii.arena.player.motivation,3</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>void_v1</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>……（沈黙）フン、訳ありか。だがな小僧、ここは逃げ込むための掃き溜めじゃねえ。生への執着を捨てた奴から死んでいく場所だ。</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>……（沈黙）フン、訳ありか。だがな小僧、ここは逃げ込むための掃き溜めじゃねえ。生への執着を捨てた奴から死んでいく場所だ。</t>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
@@ -1432,152 +1437,162 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>void_v2</t>
+          <t>pride_v1</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>……いいか、戦いの中でしか己の輪郭を保てねえってんなら、死に物狂いで剣を振れ。そうすりゃ、その虚無も少しは埋まるかもしれねえぜ。</t>
+          <t>……ハハハ！傑作だ！聞こえたかリリィ？ この新入り、初日から『王』を気取ってやがる！</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>……いいか、戦いの中でしか己の輪郭を保てねえってんなら、死に物狂いで剣を振れ。そうすりゃ、その虚無も少しは埋まるかもしれねえぜ。</t>
+          <t>……ハハハ！傑作だ！聞こえたかリリィ？ この新入り、初日から『王』を気取ってやがる！</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="inlineStr">
         <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>pride_v2</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>だがな、その傲慢さが武器になることもある。神を殺すのはいつだって、己の身の程を知らぬ大馬鹿野郎だ。</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>だがな、その傲慢さが武器になることもある。神を殺すのはいつだって、己の身の程を知らぬ大馬鹿野郎だ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="F60" t="inlineStr">
+        <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>void_l1</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>……居場所を求めて、わざわざ異次元まで。少し同情してしまいますね。ですが、事務手続きに私情は挟みませんよ？</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>……居場所を求めて、わざわざ異次元まで。少し同情してしまいますね。ですが、事務手続きに私情は挟みませんよ？</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="B60" t="inlineStr">
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>pride_l1</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>……まぁ。グランドマスターの座を狙うなんて。ふふ、夢物語でも期待しておきましょう。</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>……まぁ。グランドマスターの座を狙うなんて。ふふ、夢物語でも期待しておきましょう。</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="inlineStr">
         <is>
           <t>ending</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>pride</t>
-        </is>
-      </c>
-    </row>
     <row r="62">
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.motivation,3</t>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>drift</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>shake</t>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>drift_v1</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>……チッ。ヤク中か、それとも脳みそまで混沌に冒されたか。会話もできねえ壊れた玩具に用はねえんだがな。</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>……チッ。ヤク中か、それとも脳みそまで混沌に冒されたか。会話もできねえ壊れた玩具に用はねえんだがな。</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="inlineStr">
         <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>drift_l1</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>あら、私は嫌いではありませんよ？ 理由なき衝動ほど、純粋で美しいものはありません。あなたのその濁った瞳……何を見るのか楽しみです。</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>あら、私は嫌いではありませんよ？ 理由なき衝動ほど、純粋で美しいものはありません。あなたのその濁った瞳……何を見るのか楽しみです。</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ending</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ending</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>shake</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="F68" t="inlineStr">
+        <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>pride_v1</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>……ハハハ！傑作だ！聞こえたかリリィ？ この新入り、初日から『王』を気取ってやがる！</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>……ハハハ！傑作だ！聞こえたかリリィ？ この新入り、初日から『王』を気取ってやがる！</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>pride_v2</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>だがな、その傲慢さが武器になることもある。神を殺すのはいつだって、己の身の程を知らぬ大馬鹿野郎だ。</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>だがな、その傲慢さが武器になることもある。神を殺すのはいつだって、己の身の程を知らぬ大馬鹿野郎だ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>pride_l1</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>……まぁ。グランドマスターの座を狙うなんて。ふふ、夢物語でも期待しておきましょう。</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>……まぁ。グランドマスターの座を狙うなんて。ふふ、夢物語でも期待しておきましょう。</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>drift</t>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>end_v1</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>リリィ！ こいつの名前を、剣闘士の列に書き加えろ！</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>リリィ！ こいつの名前を、剣闘士の列に書き加えろ！</t>
         </is>
       </c>
     </row>
@@ -1589,104 +1604,89 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>drift_v1</t>
+          <t>end_v2</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>……チッ。ヤク中か、それとも脳みそまで混沌に冒されたか。会話もできねえ壊れた玩具に用はねえんだがな。</t>
+          <t>お前がただの肉塊か、それとも多少は骨のある肉塊か……。このコロシアムで証明してみせな。</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>……チッ。ヤク中か、それとも脳みそまで混沌に冒されたか。会話もできねえ壊れた玩具に用はねえんだがな。</t>
+          <t>お前がただの肉塊か、それとも多少は骨のある肉塊か……。このコロシアムで証明してみせな。</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>drift_l1</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>あら、私は嫌いではありませんよ？ 理由なき衝動ほど、純粋で美しいものはありません。あなたのその濁った瞳……何を見るのか楽しみです。</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>あら、私は嫌いではありませんよ？ 理由なき衝動ほど、純粋で美しいものはありません。あなたのその濁った瞳……何を見るのか楽しみです。</t>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.rank,0</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>ending</t>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>chitsii.arena.rel.lily,30</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>ending</t>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>chitsii.arena.rel.balgas,20</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="D73" t="inlineStr">
         <is>
-          <t>shake</t>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>chitsii.arena.rel.zek,0</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>end_v1</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>リリィ！ こいつの名前を、剣闘士の列に書き加えろ！</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>リリィ！ こいつの名前を、剣闘士の列に書き加えろ！</t>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>sukutsu_gladiator,1</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>end_v2</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>お前がただの肉塊か、それとも多少は骨のある肉塊か……。このコロシアムで証明してみせな。</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>お前がただの肉塊か、それとも多少は骨のある肉塊か……。このコロシアムで証明してみせな。</t>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_stage,1</t>
         </is>
       </c>
     </row>
@@ -1698,101 +1698,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.rank,0</t>
+          <t>sukutsu_opening_seen,1</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="D77" t="inlineStr">
         <is>
-          <t>setFlag</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>chitsii.arena.rel.lily,30</t>
+          <t>complete_quest(01_opening)</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="D78" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>chitsii.arena.rel.balgas,20</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>chitsii.arena.rel.zek,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>sukutsu_gladiator,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_stage,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>sukutsu_opening_seen,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>modInvoke</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>complete_quest(01_opening)</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="D84" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_opening.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_opening.xlsx
@@ -510,12 +510,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>(奇妙な場所に足を踏み入れると、あなたの上下左右の感覚が溶けていく。次に足が触れたのは、石畳だ。)</t>
+          <t>(……どこだ、ここは。上も下も分からない。体が浮いているような、沈んでいるような……)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>(奇妙な場所に足を踏み入れると、あなたの上下左右の感覚が溶けていく。次に足が触れたのは、石畳だ。)</t>
+          <t>(……どこだ、ここは。上も下も分からない。体が浮いているような、沈んでいるような……)</t>
         </is>
       </c>
     </row>
@@ -532,12 +532,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>(それは、数多の敗者の絶望が凝固し、永遠に熱を失ったかのような黒曜石だった。頭上を見上げれば、そこには空も太陽もない。)</t>
+          <t>(足が何かに触れた。冷たい。石……？)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>(それは、数多の敗者の絶望が凝固し、永遠に熱を失ったかのような黒曜石だった。頭上を見上げれば、そこには空も太陽もない。)</t>
+          <t>(足が何かに触れた。冷たい。石……？)</t>
         </is>
       </c>
     </row>
@@ -561,12 +561,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>(ただ、紫紺の渦を巻く「虚無」が天を覆い、時折、空間の裂け目から巨大な触手が垂れ下がっている。)</t>
+          <t>(頭上には……空がない。ただ、渦を巻く紫の闇。何か巨大なものが、そこから垂れ下がっている気がする。)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>(ただ、紫紺の渦を巻く「虚無」が天を覆い、時折、空間の裂け目から巨大な触手が垂れ下がっている。)</t>
+          <t>(頭上には……空がない。ただ、渦を巻く紫の闇。何か巨大なものが、そこから垂れ下がっている気がする。)</t>
         </is>
       </c>
     </row>
@@ -583,12 +583,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>(ここは**次元の狭間**——世界と世界の隙間に浮かぶ領域。確定した因果律を持たず、時間の流れすら曖昧な「無法地帯」だ。)</t>
+          <t>(奇妙な場所だ。時間の流れすら曖昧に感じる。)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>(ここは**次元の狭間**——世界と世界の隙間に浮かぶ領域。確定した因果律を持たず、時間の流れすら曖昧な「無法地帯」だ。)</t>
+          <t>(奇妙な場所だ。時間の流れすら曖昧に感じる。)</t>
         </is>
       </c>
     </row>
@@ -605,12 +605,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>(遠くから響くのは、雷鳴のような喝采。だが、観客の姿は見えない。姿の見えない「何か」が、この闘技場を見下ろしている——それだけは感じられる。)</t>
+          <t>(遠くから響く、雷鳴のような音……歓声か？ だが、誰もいない。見えないだけか。何かに見られている——その感覚だけは確かだ。)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>(遠くから響くのは、雷鳴のような喝采。だが、観客の姿は見えない。姿の見えない「何か」が、この闘技場を見下ろしている——それだけは感じられる。)</t>
+          <t>(遠くから響く、雷鳴のような音……歓声か？ だが、誰もいない。見えないだけか。何かに見られている——その感覚だけは確かだ。)</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_opening.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_opening.xlsx
@@ -1129,12 +1129,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>【傲慢】この闘技場も、あのドラゴンも、いずれ配下に置いてやる</t>
+          <t>【傲慢】この闘技場もいずれ配下に置いてやる</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>【傲慢】この闘技場も、あのドラゴンも、いずれ配下に置いてやる</t>
+          <t>【傲慢】この闘技場もいずれ配下に置いてやる</t>
         </is>
       </c>
     </row>
@@ -1209,12 +1209,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>ハッ！ わかりやすくていいぜ。金と権力……地上のクズどもが一生かけて追いまわすゴミ屑だ。だがいいか、ここでは金などただの石ころだ。</t>
+          <t>ハッ！ わかりやすくていいぜ。金と権力、そして力……地上のクズどもが一生かけて追いまわす、人を魅了してやまないゴミ屑だ。ここでゲロゲロ程も価値がないとしてもな。</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>ハッ！ わかりやすくていいぜ。金と権力……地上のクズどもが一生かけて追いまわすゴミ屑だ。だがいいか、ここでは金などただの石ころだ。</t>
+          <t>ハッ！ わかりやすくていいぜ。金と権力、そして力……地上のクズどもが一生かけて追いまわす、人を魅了してやまないゴミ屑だ。ここでゲロゲロ程も価値がないとしてもな。</t>
         </is>
       </c>
     </row>
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>ふふ、強欲な魂は好物ですよ。あなたが稼ぐ賞金……その何割を私が手数料としていただくことになるのか、楽しみです。精々、死なずに稼いでくださいね？</t>
+          <t>ふふ、強欲な魂は好物ですよ。あなたの掛け金……その何割を私が手数料としていただくことになるのか、楽しみです。精々、死なずに稼いでくださいね？</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>ふふ、強欲な魂は好物ですよ。あなたが稼ぐ賞金……その何割を私が手数料としていただくことになるのか、楽しみです。精々、死なずに稼いでくださいね？</t>
+          <t>ふふ、強欲な魂は好物ですよ。あなたの掛け金……その何割を私が手数料としていただくことになるのか、楽しみです。精々、死なずに稼いでくださいね？</t>
         </is>
       </c>
     </row>
@@ -1415,12 +1415,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>……（沈黙）フン、訳ありか。だがな小僧、ここは逃げ込むための掃き溜めじゃねえ。生への執着を捨てた奴から死んでいく場所だ。</t>
+          <t>……フン、訳ありか。だがな小僧、ここは逃げ込むための掃き溜めじゃねえ。生への執着を捨てた奴から死んでいく。</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>……（沈黙）フン、訳ありか。だがな小僧、ここは逃げ込むための掃き溜めじゃねえ。生への執着を捨てた奴から死んでいく場所だ。</t>
+          <t>……フン、訳ありか。だがな小僧、ここは逃げ込むための掃き溜めじゃねえ。生への執着を捨てた奴から死んでいく。</t>
         </is>
       </c>
     </row>
@@ -1536,12 +1536,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>だがな、その傲慢さが武器になることもある。神を殺すのはいつだって、己の身の程を知らぬ大馬鹿野郎だ。</t>
+          <t>その青臭さには反吐が出るが、傲慢さが武器になることもある。神を殺すのはいつだって、己の身の程を知らぬ大馬鹿野郎だ。</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>だがな、その傲慢さが武器になることもある。神を殺すのはいつだって、己の身の程を知らぬ大馬鹿野郎だ。</t>
+          <t>その青臭さには反吐が出るが、傲慢さが武器になることもある。神を殺すのはいつだって、己の身の程を知らぬ大馬鹿野郎だ。</t>
         </is>
       </c>
     </row>
@@ -1558,12 +1558,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>……まぁ。グランドマスターの座を狙うなんて。ふふ、夢物語でも期待しておきましょう。</t>
+          <t>グランドマスターの座を狙うなんて。ふふ、夢物語でも期待しておきましょう。</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>……まぁ。グランドマスターの座を狙うなんて。ふふ、夢物語でも期待しておきましょう。</t>
+          <t>グランドマスターの座を狙うなんて。ふふ、夢物語でも期待しておきましょう。</t>
         </is>
       </c>
     </row>
@@ -1594,12 +1594,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>……チッ。ヤク中か、それとも脳みそまで混沌に冒されたか。会話もできねえ壊れた玩具に用はねえんだがな。</t>
+          <t>……ヤク中か、それとも脳みそまで混沌に冒されたか。会話もできねえ壊れた玩具に用はねえんだがな。</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>……チッ。ヤク中か、それとも脳みそまで混沌に冒されたか。会話もできねえ壊れた玩具に用はねえんだがな。</t>
+          <t>……ヤク中か、それとも脳みそまで混沌に冒されたか。会話もできねえ壊れた玩具に用はねえんだがな。</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_opening.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_opening.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1710,7 +1710,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>chitsii.arena.rel.lily,30</t>
+          <t>sukutsu_gladiator,1</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>chitsii.arena.rel.balgas,20</t>
+          <t>sukutsu_arena_stage,1</t>
         </is>
       </c>
     </row>
@@ -1734,65 +1734,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>chitsii.arena.rel.zek,0</t>
+          <t>sukutsu_opening_seen,1</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="D80" t="inlineStr">
         <is>
-          <t>setFlag</t>
+          <t>modInvoke</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>sukutsu_gladiator,1</t>
+          <t>complete_quest(01_opening)</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="D81" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_stage,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>sukutsu_opening_seen,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>modInvoke</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>complete_quest(01_opening)</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="D84" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_opening.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_opening.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,85 +488,55 @@
     <row r="7">
       <c r="D7" t="inlineStr">
         <is>
+          <t>fadeOut</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3.0,black</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" t="inlineStr">
+        <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/sukutsu_arena_opening");             var data = SoundManager.current.GetData("BGM/sukutsu_arena_opening");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/sukutsu_arena_opening");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>narr1</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>(……どこだ、ここは。上も下も分からない。体が浮いているような、沈んでいるような……)</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>(……どこだ、ここは。上も下も分からない。体が浮いているような、沈んでいるような……)</t>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>dm.imageBG.enabled = true; dm.imageBG.sprite = "Drama/arena_lobby".LoadSprite();</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>narr2</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>(足が何かに触れた。冷たい。石……？)</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>(足が何かに触れた。冷たい。石……？)</t>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>fadeIn</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>3.0,black</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="D10" t="inlineStr">
         <is>
-          <t>shake</t>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/sukutsu_arena_opening");             var data = SoundManager.current.GetData("BGM/sukutsu_arena_opening");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/sukutsu_arena_opening");             }</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>narr3</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>(頭上には……空がない。ただ、渦を巻く紫の闇。何か巨大なものが、そこから垂れ下がっている気がする。)</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>(頭上には……空がない。ただ、渦を巻く紫の闇。何か巨大なものが、そこから垂れ下がっている気がする。)</t>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>glitch</t>
         </is>
       </c>
     </row>
@@ -578,17 +548,17 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>narr3b</t>
+          <t>narr1</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>(奇妙な場所だ。時間の流れすら曖昧に感じる。)</t>
+          <t>(……どこだ、ここは。)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>(奇妙な場所だ。時間の流れすら曖昧に感じる。)</t>
+          <t>(……どこだ、ここは。)</t>
         </is>
       </c>
     </row>
@@ -600,75 +570,75 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>narr3c</t>
+          <t>narr2</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>(遠くから響く、雷鳴のような音……歓声か？ だが、誰もいない。見えないだけか。何かに見られている——その感覚だけは確かだ。)</t>
+          <t>(奇妙な場所だ。時間の流れすら曖昧に感じる。)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>(遠くから響く、雷鳴のような音……歓声か？ だが、誰もいない。見えないだけか。何かに見られている——その感覚だけは確かだ。)</t>
+          <t>(奇妙な場所だ。時間の流れすら曖昧に感じる。)</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>narr3</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>(遠くから響く、雷鳴のような音……歓声か？ 何かに見られているーーその感覚だけは確かだ。)</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>(遠くから響く、雷鳴のような音……歓声か？ 何かに見られているーーその感覚だけは確かだ。)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="D15" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="D16" t="inlineStr">
         <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" t="inlineStr">
+        <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>lily1</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>……あら。召喚の儀も、空間の歪みもなしに、この『ヴォイド・コロシアム』に迷い込む『生きた肉』がいるなんて。</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>……あら。召喚の儀も、空間の歪みもなしに、この『ヴォイド・コロシアム』に迷い込む『生きた肉』がいるなんて。</t>
         </is>
       </c>
     </row>
@@ -680,17 +650,17 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>lily1b</t>
+          <t>lily1</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>……おかしいですね。普通、この狭間に落ちた者は、イルヴァとの繋がりを失うはずなのに。あなた、まだ『帰り道』を持っている……？ イルヴァの神々の加護でもあるのかしら。</t>
+          <t>……あら。召喚の儀も、空間の歪みもなしに、ここまで迷い込む『生きた肉』がいるなんて。</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>……おかしいですね。普通、この狭間に落ちた者は、イルヴァとの繋がりを失うはずなのに。あなた、まだ『帰り道』を持っている……？ イルヴァの神々の加護でもあるのかしら。</t>
+          <t>……あら。召喚の儀も、空間の歪みもなしに、ここまで迷い込む『生きた肉』がいるなんて。</t>
         </is>
       </c>
     </row>
@@ -702,17 +672,17 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>lily2</t>
+          <t>lily1b</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>まあ、いいでしょう。お客様、それとも……新たな『商品』かしら？ここは次元の狭間、そして絶望の始まり。</t>
+          <t>……おかしいですね。普通、この狭間に落ちた者は、イルヴァとの繋がりを失うはずなのに。あなた、まだ『帰り道』を持っている……？ イルヴァの神々の加護でもあるのかしら。</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>まあ、いいでしょう。お客様、それとも……新たな『商品』かしら？ここは次元の狭間、そして絶望の始まり。</t>
+          <t>……おかしいですね。普通、この狭間に落ちた者は、イルヴァとの繋がりを失うはずなのに。あなた、まだ『帰り道』を持っている……？ イルヴァの神々の加護でもあるのかしら。</t>
         </is>
       </c>
     </row>
@@ -724,75 +694,75 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
+          <t>lily2</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>まあ、いいでしょう。お客様、それとも……新たな『商品』かしら？ここは次元の狭間、そして絶望の始まり。</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>まあ、いいでしょう。お客様、それとも……新たな『商品』かしら？ここは次元の狭間、そして絶望の始まり。</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
           <t>lily3</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>……あなたは自由に出入りできるようですけれど、ここの『仕組み』はあそこにいる「飲んだくれ」に聞くのが作法ですから。</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>……あなたは自由に出入りできるようですけれど、ここの『仕組み』はあそこにいる「飲んだくれ」に聞くのが作法ですから。</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="D22" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="D23" t="inlineStr">
         <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="D24" t="inlineStr">
+        <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>vargus1</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>これはこれは。ちょっとばかり魔物に追われて、運悪く次元の割れ目に滑り落ちた『迷い犬』か？</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>これはこれは。ちょっとばかり魔物に追われて、運悪く次元の割れ目に滑り落ちた『迷い犬』か？</t>
         </is>
       </c>
     </row>
@@ -804,17 +774,17 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>vargus1b</t>
+          <t>vargus1</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>……お前、まだイルヴァの神々との繋がりが切れてねえな。こいつは珍しい。普通、この狭間に落ちりゃ、どんな加護も消し飛ぶんだが。</t>
+          <t>これはこれは。ちょっとばかり魔物に追われて、運悪く次元の割れ目に滑り落ちた『迷い犬』か？</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>……お前、まだイルヴァの神々との繋がりが切れてねえな。こいつは珍しい。普通、この狭間に落ちりゃ、どんな加護も消し飛ぶんだが。</t>
+          <t>これはこれは。ちょっとばかり魔物に追われて、運悪く次元の割れ目に滑り落ちた『迷い犬』か？</t>
         </is>
       </c>
     </row>
@@ -826,17 +796,17 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>vargus2</t>
+          <t>vargus1b</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>ここは、選ばれた狂人どもが、『観客』の暇つぶしのために、殺し合うための場所だ。お前は『帰れる』んだろう？ なら、さっさと帰んな。ここに留まる理由なんざ、正気の奴にはねえはずだ。</t>
+          <t>……お前、まだイルヴァの神々との繋がりが切れてねえな。こいつは珍しい。普通、この狭間に落ちりゃ、どんな加護も消し飛ぶんだが。</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>ここは、選ばれた狂人どもが、『観客』の暇つぶしのために、殺し合うための場所だ。お前は『帰れる』んだろう？ なら、さっさと帰んな。ここに留まる理由なんざ、正気の奴にはねえはずだ。</t>
+          <t>……お前、まだイルヴァの神々との繋がりが切れてねえな。こいつは珍しい。普通、この狭間に落ちりゃ、どんな加護も消し飛ぶんだが。</t>
         </is>
       </c>
     </row>
@@ -848,44 +818,39 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
+          <t>vargus2</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>ここは、選ばれた狂人どもが、『観客』の暇つぶしのために、殺し合うための場所だ。お前は『帰れる』んだろう？ なら、さっさと帰んな。ここに留まる理由なんざ、正気の奴にはねえはずだ。</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ここは、選ばれた狂人どもが、『観客』の暇つぶしのために、殺し合うための場所だ。お前は『帰れる』んだろう？ なら、さっさと帰んな。ここに留まる理由なんざ、正気の奴にはねえはずだ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
           <t>vargus3</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>……あ？ なんだその目は？ 言いたいことでもあるのか？</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>……あ？ なんだその目は？ 言いたいことでもあるのか？</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>vargus_react</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>c_resolve_fight</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>腕っぷしには自信がある。闘技場に参加したい</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>腕っぷしには自信がある。闘技場に参加したい</t>
         </is>
       </c>
     </row>
@@ -902,17 +867,17 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>c_resolve_magic</t>
+          <t>c_resolve_fight</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>ここで魔法の腕試しをしたい</t>
+          <t>腕っぷしには自信がある。闘技場に参加したい</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>ここで魔法の腕試しをしたい</t>
+          <t>腕っぷしには自信がある。闘技場に参加したい</t>
         </is>
       </c>
     </row>
@@ -929,17 +894,17 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>c_resolve_survive</t>
+          <t>c_resolve_magic</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>心強い仲間と一緒なら怖くはない</t>
+          <t>ここで魔法の腕試しをしたい</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>心強い仲間と一緒なら怖くはない</t>
+          <t>ここで魔法の腕試しをしたい</t>
         </is>
       </c>
     </row>
@@ -956,53 +921,58 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
+          <t>c_resolve_survive</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>心強い仲間と一緒なら怖くはない</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>心強い仲間と一緒なら怖くはない</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>vargus_react</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
           <t>c_resolve_drift</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>観光がてら、試合に参加したい</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>観光がてら、試合に参加したい</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>vargus_react</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="D33" t="inlineStr">
+    <row r="34">
+      <c r="D34" t="inlineStr">
         <is>
           <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>vargus_react1</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>……ハッ、正気か？ 帰れるのに、自分の意志でこの地獄の底に留まりてえと言いやがったか。</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>……ハッ、正気か？ 帰れるのに、自分の意志でこの地獄の底に留まりてえと言いやがったか。</t>
         </is>
       </c>
     </row>
@@ -1014,53 +984,48 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
+          <t>vargus_react1</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>……ハッ、正気か？ 帰れるのに、自分の意志でこの地獄の底に留まりてえと言いやがったか。</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>……ハッ、正気か？ 帰れるのに、自分の意志でこの地獄の底に留まりてえと言いやがったか。</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
           <t>vargus_react2</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>いいぜ。囚われた奴らが生き残るために戦うのとは訳が違う。『選んで』来る奴は、最高に面白いか、最高に馬鹿か、どっちかだ。
 聞かせろ、お前は何のために戦う？</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>いいぜ。囚われた奴らが生き残るために戦うのとは訳が違う。『選んで』来る奴は、最高に面白いか、最高に馬鹿か、どっちかだ。
 聞かせろ、お前は何のために戦う？</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>greed</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>c1</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>【強欲】富と名声、そして力が欲しい</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>【強欲】富と名声、そして力が欲しい</t>
-        </is>
-      </c>
-    </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>battle</t>
+          <t>greed</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1070,24 +1035,24 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>c1</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>【求道】己の限界を知りたい。強い奴と戦わせろ</t>
+          <t>【強欲】富と名声、そして力！</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>【求道】己の限界を知りたい。強い奴と戦わせろ</t>
+          <t>【強欲】富と名声、そして力！</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>void</t>
+          <t>battle</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1097,24 +1062,24 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>c2</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>【虚無】帰る場所などない。ここが終着点だ</t>
+          <t>【求道】己の限界を量るためだ。強い奴と戦わせろ</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>【虚無】帰る場所などない。ここが終着点だ</t>
+          <t>【求道】己の限界を量るためだ。強い奴と戦わせろ</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>pride</t>
+          <t>void</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1124,24 +1089,24 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>c4</t>
+          <t>c3</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>【傲慢】この闘技場もいずれ配下に置いてやる</t>
+          <t>【虚無】もとより帰る場所などない</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>【傲慢】この闘技場もいずれ配下に置いてやる</t>
+          <t>【虚無】もとより帰る場所などない</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>drift</t>
+          <t>pride</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1151,17 +1116,17 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>c5</t>
+          <t>c4</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>【狂人】理由はない</t>
+          <t>【傲慢】闘技場を支配下に置くのも悪くない</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>【狂人】理由はない</t>
+          <t>【傲慢】闘技場を支配下に置くのも悪くない</t>
         </is>
       </c>
     </row>
@@ -1173,48 +1138,53 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>c5</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>【狂人】理由はない</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>【狂人】理由はない</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>drift</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>cancel</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>greed</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="D43" t="inlineStr">
+    <row r="44">
+      <c r="D44" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>chitsii.arena.player.motivation,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>greed_v1</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>ハッ！ わかりやすくていいぜ。金と権力、そして力……地上のクズどもが一生かけて追いまわす、人を魅了してやまないゴミ屑だ。ここでゲロゲロ程も価値がないとしてもな。</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>ハッ！ わかりやすくていいぜ。金と権力、そして力……地上のクズどもが一生かけて追いまわす、人を魅了してやまないゴミ屑だ。ここでゲロゲロ程も価値がないとしてもな。</t>
         </is>
       </c>
     </row>
@@ -1226,87 +1196,87 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>greed_v2</t>
+          <t>greed_v1</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>お前が手にするのは、神々すら平伏させる「圧倒的な階位」……。それが欲しけりゃ、他人の内臓を積み上げて階段を作るんだな。</t>
+          <t>ハッ！ わかりやすくていいぜ。金と権力、そして力……地上のクズどもが一生かけて追いまわす、人を魅了してやまないゴミ屑だ。ここでゲロゲロ程も価値がないとしてもな。</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>お前が手にするのは、神々すら平伏させる「圧倒的な階位」……。それが欲しけりゃ、他人の内臓を積み上げて階段を作るんだな。</t>
+          <t>ハッ！ わかりやすくていいぜ。金と権力、そして力……地上のクズどもが一生かけて追いまわす、人を魅了してやまないゴミ屑だ。ここでゲロゲロ程も価値がないとしてもな。</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="F46" t="inlineStr">
         <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>greed_v2</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>お前が手にするのは、神々すら平伏させる「圧倒的な階位」……。それが欲しけりゃ、他人の内臓を積み上げて階段を作るんだな。</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>お前が手にするのは、神々すら平伏させる「圧倒的な階位」……。それが欲しけりゃ、他人の内臓を積み上げて階段を作るんだな。</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" t="inlineStr">
+        <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>greed_l1</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>ふふ、強欲な魂は好物ですよ。あなたの掛け金……その何割を私が手数料としていただくことになるのか、楽しみです。精々、死なずに稼いでくださいね？</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>ふふ、強欲な魂は好物ですよ。あなたの掛け金……その何割を私が手数料としていただくことになるのか、楽しみです。精々、死なずに稼いでくださいね？</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="B47" t="inlineStr">
+    <row r="48">
+      <c r="B48" t="inlineStr">
         <is>
           <t>ending</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>battle</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="D49" t="inlineStr">
+    <row r="50">
+      <c r="D50" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>chitsii.arena.player.motivation,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>battle_v1</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>……チッ、一番厄介な手合いだ。己の限界だと？ 深淵を前にそんなセリフが吐けるか。</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>……チッ、一番厄介な手合いだ。己の限界だと？ 深淵を前にそんなセリフが吐けるか。</t>
         </is>
       </c>
     </row>
@@ -1318,17 +1288,17 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>battle_v2</t>
+          <t>battle_v1</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>いいぜ、お前のその真っ直ぐな瞳が、絶望で濁っていく様を見るのは……</t>
+          <t>……チッ、一番厄介な手合いだ。己の限界だと？ 深淵を前にそんなセリフが吐けるか。</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>いいぜ、お前のその真っ直ぐな瞳が、絶望で濁っていく様を見るのは……</t>
+          <t>……チッ、一番厄介な手合いだ。己の限界だと？ 深淵を前にそんなセリフが吐けるか。</t>
         </is>
       </c>
     </row>
@@ -1340,87 +1310,87 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>battle_v3</t>
+          <t>battle_v2</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>……かつての俺を見るようで、反吐が出るがな。</t>
+          <t>いいぜ、お前のその真っ直ぐな瞳が、絶望で濁っていく様を見るのは……</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>……かつての俺を見るようで、反吐が出るがな。</t>
+          <t>いいぜ、お前のその真っ直ぐな瞳が、絶望で濁っていく様を見るのは……</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="inlineStr">
         <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>battle_v3</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>……かつての俺を見るようで、反吐が出るがな。</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>……かつての俺を見るようで、反吐が出るがな。</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="F54" t="inlineStr">
+        <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>battle_l1</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>……あら。戦うこと自体が目的、ですか。あなたの放つその濃密な「闘気」……少し当てられただけで、サキュバスとしての本能が疼いてしまいます。壊れてしまう前に、その輝きを存分に見せてくださいね。</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>……あら。戦うこと自体が目的、ですか。あなたの放つその濃密な「闘気」……少し当てられただけで、サキュバスとしての本能が疼いてしまいます。壊れてしまう前に、その輝きを存分に見せてくださいね。</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="B54" t="inlineStr">
+    <row r="55">
+      <c r="B55" t="inlineStr">
         <is>
           <t>ending</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>void</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="D56" t="inlineStr">
+    <row r="57">
+      <c r="D57" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>chitsii.arena.player.motivation,2</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>void_v1</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>……フン、訳ありか。だがな小僧、ここは逃げ込むための掃き溜めじゃねえ。生への執着を捨てた奴から死んでいく。</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>……フン、訳ありか。だがな小僧、ここは逃げ込むための掃き溜めじゃねえ。生への執着を捨てた奴から死んでいく。</t>
         </is>
       </c>
     </row>
@@ -1432,94 +1402,94 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>void_v2</t>
+          <t>void_v1</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>……いいか、戦いの中でしか己の輪郭を保てねえってんなら、死に物狂いで剣を振れ。そうすりゃ、その虚無も少しは埋まるかもしれねえぜ。</t>
+          <t>……フン、訳ありか。だがな小僧、ここは逃げ込むための掃き溜めじゃねえ。生への執着を捨てた奴から死んでいく。</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>……いいか、戦いの中でしか己の輪郭を保てねえってんなら、死に物狂いで剣を振れ。そうすりゃ、その虚無も少しは埋まるかもしれねえぜ。</t>
+          <t>……フン、訳ありか。だがな小僧、ここは逃げ込むための掃き溜めじゃねえ。生への執着を捨てた奴から死んでいく。</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="inlineStr">
         <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>void_v2</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>……いいか、戦いの中でしか己の輪郭を保てねえってんなら、死に物狂いで剣を振れ。そうすりゃ、その虚無も少しは埋まるかもしれねえぜ。</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>……いいか、戦いの中でしか己の輪郭を保てねえってんなら、死に物狂いで剣を振れ。そうすりゃ、その虚無も少しは埋まるかもしれねえぜ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="F60" t="inlineStr">
+        <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>void_l1</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>……居場所を求めて、わざわざ異次元まで。少し同情してしまいますね。ですが、事務手続きに私情は挟みませんよ？</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>……居場所を求めて、わざわざ異次元まで。少し同情してしまいますね。ですが、事務手続きに私情は挟みませんよ？</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="B60" t="inlineStr">
+    <row r="61">
+      <c r="B61" t="inlineStr">
         <is>
           <t>ending</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>pride</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.motivation,3</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="D63" t="inlineStr">
         <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.motivation,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="D64" t="inlineStr">
+        <is>
           <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>pride_v1</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>……ハハハ！傑作だ！聞こえたかリリィ？ この新入り、初日から『王』を気取ってやがる！</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>……ハハハ！傑作だ！聞こえたかリリィ？ この新入り、初日から『王』を気取ってやがる！</t>
         </is>
       </c>
     </row>
@@ -1531,140 +1501,140 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>pride_v2</t>
+          <t>pride_v1</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>その青臭さには反吐が出るが、傲慢さが武器になることもある。神を殺すのはいつだって、己の身の程を知らぬ大馬鹿野郎だ。</t>
+          <t>……ハハハ！傑作だ！聞こえたかリリィ？ この新入り、初日から『王』を気取ってやがる！</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>その青臭さには反吐が出るが、傲慢さが武器になることもある。神を殺すのはいつだって、己の身の程を知らぬ大馬鹿野郎だ。</t>
+          <t>……ハハハ！傑作だ！聞こえたかリリィ？ この新入り、初日から『王』を気取ってやがる！</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="inlineStr">
         <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>pride_v2</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>その青臭さには反吐が出るが、傲慢さが武器になることもある。神を殺すのはいつだって、己の身の程を知らぬ大馬鹿野郎だ。</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>その青臭さには反吐が出るが、傲慢さが武器になることもある。神を殺すのはいつだって、己の身の程を知らぬ大馬鹿野郎だ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="F67" t="inlineStr">
+        <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>pride_l1</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>グランドマスターの座を狙うなんて。ふふ、夢物語でも期待しておきましょう。</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>グランドマスターの座を狙うなんて。ふふ、夢物語でも期待しておきましょう。</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="B67" t="inlineStr">
+    <row r="68">
+      <c r="B68" t="inlineStr">
         <is>
           <t>ending</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>drift</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>drift_v1</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>……ヤク中か、それとも脳みそまで混沌に冒されたか。会話もできねえ壊れた玩具に用はねえんだがな。</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>……ヤク中か、それとも脳みそまで混沌に冒されたか。会話もできねえ壊れた玩具に用はねえんだがな。</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="inlineStr">
         <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>drift_v1</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>……ヤク中か、それとも脳みそまでエーテルに冒されたか。会話もできねえ壊れた玩具に用はねえんだがな。</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>……ヤク中か、それとも脳みそまでエーテルに冒されたか。会話もできねえ壊れた玩具に用はねえんだがな。</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="F71" t="inlineStr">
+        <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>drift_l1</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>あら、私は嫌いではありませんよ？ 理由なき衝動ほど、純粋で美しいものはありません。あなたのその濁った瞳……何を見るのか楽しみです。</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>あら、私は嫌いではありませんよ？ 理由なき衝動ほど、純粋で美しいものはありません。あなたのその濁った瞳……何を見るのか楽しみです。</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="B71" t="inlineStr">
+    <row r="72">
+      <c r="B72" t="inlineStr">
         <is>
           <t>ending</t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+    <row r="73">
+      <c r="A73" t="inlineStr">
         <is>
           <t>ending</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="D73" t="inlineStr">
+    <row r="74">
+      <c r="D74" t="inlineStr">
         <is>
           <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>end_v1</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>リリィ！ こいつの名前を、剣闘士の列に書き加えろ！</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>リリィ！ こいつの名前を、剣闘士の列に書き加えろ！</t>
         </is>
       </c>
     </row>
@@ -1676,29 +1646,39 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
+          <t>end_v1</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>リリィ！ こいつの名前を、剣闘士の列に書き加えろ！</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>リリィ！ こいつの名前を、剣闘士の列に書き加えろ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
           <t>end_v2</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>お前がただの肉塊か、それとも多少は骨のある肉塊か……。このコロシアムで証明してみせな。</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>お前がただの肉塊か、それとも多少は骨のある肉塊か……。このコロシアムで証明してみせな。</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.rank,0</t>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>お前がただの肉塊か、それとも多少は骨のある肉塊か……。この闘技場で証明してみせな。</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>お前がただの肉塊か、それとも多少は骨のある肉塊か……。この闘技場で証明してみせな。</t>
         </is>
       </c>
     </row>
@@ -1710,7 +1690,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>sukutsu_gladiator,1</t>
+          <t>chitsii.arena.player.rank,0</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1702,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>sukutsu_arena_stage,1</t>
+          <t>sukutsu_gladiator,1</t>
         </is>
       </c>
     </row>
@@ -1734,29 +1714,53 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>sukutsu_opening_seen,1</t>
+          <t>sukutsu_arena_stage,1</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="D80" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>setFlag</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>complete_quest(01_opening)</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>sukutsu_opening_seen,1</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="D81" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>complete_quest(01_opening)</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>fadeOut</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1.0,black</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="D83" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_opening.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_opening.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="opening" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sukutsu_opening" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,40 +439,45 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>if2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>action</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>actor</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>text_JP</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>text_EN</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>text</t>
         </is>
@@ -486,369 +491,369 @@
       </c>
     </row>
     <row r="7">
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>fadeOut</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3.0,black</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>dm.imageBG.enabled = true; dm.imageBG.sprite = "Drama/arena_lobby".LoadSprite();</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>fadeIn</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>3.0,black</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/sukutsu_arena_opening");             var data = SoundManager.current.GetData("BGM/sukutsu_arena_opening");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/sukutsu_arena_opening");             }</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>glitch</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>narr1</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>(……どこだ、ここは。)</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>(……どこだ、ここは。)</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>narr2</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>(奇妙な場所だ。時間の流れすら曖昧に感じる。)</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>(奇妙な場所だ。時間の流れすら曖昧に感じる。)</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>narr3</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>(遠くから響く、雷鳴のような音……歓声か？ 何かに見られているーーその感覚だけは確かだ。)</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>(遠くから響く、雷鳴のような音……歓声か？ 何かに見られているーーその感覚だけは確かだ。)</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>lily1</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>……あら。召喚の儀も、空間の歪みもなしに、ここまで迷い込む『生きた肉』がいるなんて。</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>……あら。召喚の儀も、空間の歪みもなしに、ここまで迷い込む『生きた肉』がいるなんて。</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>lily1b</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>……おかしいですね。普通、この狭間に落ちた者は、イルヴァとの繋がりを失うはずなのに。あなた、まだ『帰り道』を持っている……？ イルヴァの神々の加護でもあるのかしら。</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>……おかしいですね。普通、この狭間に落ちた者は、イルヴァとの繋がりを失うはずなのに。あなた、まだ『帰り道』を持っている……？ イルヴァの神々の加護でもあるのかしら。</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>lily2</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>まあ、いいでしょう。お客様、それとも……新たな『商品』かしら？ここは次元の狭間、そして絶望の始まり。</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>まあ、いいでしょう。お客様、それとも……新たな『商品』かしら？ここは次元の狭間、そして絶望の始まり。</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>lily3</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>……あなたは自由に出入りできるようですけれど、ここの『仕組み』はあそこにいる「飲んだくれ」に聞くのが作法ですから。</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>……あなたは自由に出入りできるようですけれど、ここの『仕組み』はあそこにいる「飲んだくれ」に聞くのが作法ですから。</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>vargus1</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>これはこれは。ちょっとばかり魔物に追われて、運悪く次元の割れ目に滑り落ちた『迷い犬』か？</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>これはこれは。ちょっとばかり魔物に追われて、運悪く次元の割れ目に滑り落ちた『迷い犬』か？</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>vargus1b</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>……お前、まだイルヴァの神々との繋がりが切れてねえな。こいつは珍しい。普通、この狭間に落ちりゃ、どんな加護も消し飛ぶんだが。</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>……お前、まだイルヴァの神々との繋がりが切れてねえな。こいつは珍しい。普通、この狭間に落ちりゃ、どんな加護も消し飛ぶんだが。</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>vargus2</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>ここは、選ばれた狂人どもが、『観客』の暇つぶしのために、殺し合うための場所だ。お前は『帰れる』んだろう？ なら、さっさと帰んな。ここに留まる理由なんざ、正気の奴にはねえはずだ。</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>ここは、選ばれた狂人どもが、『観客』の暇つぶしのために、殺し合うための場所だ。お前は『帰れる』んだろう？ なら、さっさと帰んな。ここに留まる理由なんざ、正気の奴にはねえはずだ。</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>vargus3</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>……あ？ なんだその目は？ 言いたいことでもあるのか？</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>……あ？ なんだその目は？ 言いたいことでもあるのか？</t>
         </is>
@@ -860,22 +865,22 @@
           <t>vargus_react</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>c_resolve_fight</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>腕っぷしには自信がある。闘技場に参加したい</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>腕っぷしには自信がある。闘技場に参加したい</t>
         </is>
@@ -887,22 +892,22 @@
           <t>vargus_react</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>c_resolve_magic</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>ここで魔法の腕試しをしたい</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>ここで魔法の腕試しをしたい</t>
         </is>
@@ -914,22 +919,22 @@
           <t>vargus_react</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>c_resolve_survive</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>心強い仲間と一緒なら怖くはない</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>心強い仲間と一緒なら怖くはない</t>
         </is>
@@ -941,22 +946,22 @@
           <t>vargus_react</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>c_resolve_drift</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>観光がてら、試合に参加したい</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>観光がてら、試合に参加したい</t>
         </is>
@@ -970,52 +975,52 @@
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>vargus_react1</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>……ハッ、正気か？ 帰れるのに、自分の意志でこの地獄の底に留まりてえと言いやがったか。</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>……ハッ、正気か？ 帰れるのに、自分の意志でこの地獄の底に留まりてえと言いやがったか。</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>vargus_react2</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>いいぜ。囚われた奴らが生き残るために戦うのとは訳が違う。『選んで』来る奴は、最高に面白いか、最高に馬鹿か、どっちかだ。
 聞かせろ、お前は何のために戦う？</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>いいぜ。囚われた奴らが生き残るために戦うのとは訳が違う。『選んで』来る奴は、最高に面白いか、最高に馬鹿か、どっちかだ。
 聞かせろ、お前は何のために戦う？</t>
@@ -1028,22 +1033,22 @@
           <t>greed</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>c1</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>【強欲】富と名声、そして力！</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>【強欲】富と名声、そして力！</t>
         </is>
@@ -1055,22 +1060,22 @@
           <t>battle</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>c2</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>【求道】己の限界を量るためだ。強い奴と戦わせろ</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>【求道】己の限界を量るためだ。強い奴と戦わせろ</t>
         </is>
@@ -1082,22 +1087,22 @@
           <t>void</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>c3</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>【虚無】もとより帰る場所などない</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>【虚無】もとより帰る場所などない</t>
         </is>
@@ -1109,22 +1114,22 @@
           <t>pride</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>c4</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>【傲慢】闘技場を支配下に置くのも悪くない</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>【傲慢】闘技場を支配下に置くのも悪くない</t>
         </is>
@@ -1136,22 +1141,22 @@
           <t>drift</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>c5</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>【狂人】理由はない</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>【狂人】理由はない</t>
         </is>
@@ -1163,7 +1168,7 @@
           <t>drift</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>cancel</t>
         </is>
@@ -1177,78 +1182,78 @@
       </c>
     </row>
     <row r="44">
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>chitsii.arena.player.motivation,0</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>greed_v1</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>ハッ！ わかりやすくていいぜ。金と権力、そして力……地上のクズどもが一生かけて追いまわす、人を魅了してやまないゴミ屑だ。ここでゲロゲロ程も価値がないとしてもな。</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>ハッ！ わかりやすくていいぜ。金と権力、そして力……地上のクズどもが一生かけて追いまわす、人を魅了してやまないゴミ屑だ。ここでゲロゲロ程も価値がないとしてもな。</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>greed_v2</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>お前が手にするのは、神々すら平伏させる「圧倒的な階位」……。それが欲しけりゃ、他人の内臓を積み上げて階段を作るんだな。</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>お前が手にするのは、神々すら平伏させる「圧倒的な階位」……。それが欲しけりゃ、他人の内臓を積み上げて階段を作るんだな。</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>greed_l1</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>ふふ、強欲な魂は好物ですよ。あなたの掛け金……その何割を私が手数料としていただくことになるのか、楽しみです。精々、死なずに稼いでくださいね？</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>ふふ、強欲な魂は好物ですよ。あなたの掛け金……その何割を私が手数料としていただくことになるのか、楽しみです。精々、死なずに稼いでくださいね？</t>
         </is>
@@ -1269,100 +1274,100 @@
       </c>
     </row>
     <row r="50">
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>chitsii.arena.player.motivation,1</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>battle_v1</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>……チッ、一番厄介な手合いだ。己の限界だと？ 深淵を前にそんなセリフが吐けるか。</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>……チッ、一番厄介な手合いだ。己の限界だと？ 深淵を前にそんなセリフが吐けるか。</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>battle_v2</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>いいぜ、お前のその真っ直ぐな瞳が、絶望で濁っていく様を見るのは……</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>いいぜ、お前のその真っ直ぐな瞳が、絶望で濁っていく様を見るのは……</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>battle_v3</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>……かつての俺を見るようで、反吐が出るがな。</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>……かつての俺を見るようで、反吐が出るがな。</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>battle_l1</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>……あら。戦うこと自体が目的、ですか。あなたの放つその濃密な「闘気」……少し当てられただけで、サキュバスとしての本能が疼いてしまいます。壊れてしまう前に、その輝きを存分に見せてくださいね。</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>……あら。戦うこと自体が目的、ですか。あなたの放つその濃密な「闘気」……少し当てられただけで、サキュバスとしての本能が疼いてしまいます。壊れてしまう前に、その輝きを存分に見せてくださいね。</t>
         </is>
@@ -1383,78 +1388,78 @@
       </c>
     </row>
     <row r="57">
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>chitsii.arena.player.motivation,2</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>void_v1</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>……フン、訳ありか。だがな小僧、ここは逃げ込むための掃き溜めじゃねえ。生への執着を捨てた奴から死んでいく。</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>……フン、訳ありか。だがな小僧、ここは逃げ込むための掃き溜めじゃねえ。生への執着を捨てた奴から死んでいく。</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>void_v2</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>……いいか、戦いの中でしか己の輪郭を保てねえってんなら、死に物狂いで剣を振れ。そうすりゃ、その虚無も少しは埋まるかもしれねえぜ。</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>……いいか、戦いの中でしか己の輪郭を保てねえってんなら、死に物狂いで剣を振れ。そうすりゃ、その虚無も少しは埋まるかもしれねえぜ。</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>void_l1</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>……居場所を求めて、わざわざ異次元まで。少し同情してしまいますね。ですが、事務手続きに私情は挟みませんよ？</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>……居場所を求めて、わざわざ異次元まで。少し同情してしまいますね。ですが、事務手続きに私情は挟みませんよ？</t>
         </is>
@@ -1475,85 +1480,85 @@
       </c>
     </row>
     <row r="63">
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>chitsii.arena.player.motivation,3</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t>pride_v1</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>……ハハハ！傑作だ！聞こえたかリリィ？ この新入り、初日から『王』を気取ってやがる！</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>……ハハハ！傑作だ！聞こえたかリリィ？ この新入り、初日から『王』を気取ってやがる！</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
         <is>
           <t>pride_v2</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>その青臭さには反吐が出るが、傲慢さが武器になることもある。神を殺すのはいつだって、己の身の程を知らぬ大馬鹿野郎だ。</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>その青臭さには反吐が出るが、傲慢さが武器になることもある。神を殺すのはいつだって、己の身の程を知らぬ大馬鹿野郎だ。</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>pride_l1</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>グランドマスターの座を狙うなんて。ふふ、夢物語でも期待しておきましょう。</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>グランドマスターの座を狙うなんて。ふふ、夢物語でも期待しておきましょう。</t>
         </is>
@@ -1574,44 +1579,44 @@
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>drift_v1</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>……ヤク中か、それとも脳みそまでエーテルに冒されたか。会話もできねえ壊れた玩具に用はねえんだがな。</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>……ヤク中か、それとも脳みそまでエーテルに冒されたか。会話もできねえ壊れた玩具に用はねえんだがな。</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>drift_l1</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>あら、私は嫌いではありませんよ？ 理由なき衝動ほど、純粋で美しいものはありません。あなたのその濁った瞳……何を見るのか楽しみです。</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>あら、私は嫌いではありませんよ？ 理由なき衝動ほど、純粋で美しいものはありません。あなたのその濁った瞳……何を見るのか楽しみです。</t>
         </is>
@@ -1632,135 +1637,135 @@
       </c>
     </row>
     <row r="74">
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>end_v1</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>リリィ！ こいつの名前を、剣闘士の列に書き加えろ！</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>リリィ！ こいつの名前を、剣闘士の列に書き加えろ！</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>end_v2</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
+      <c r="J76" t="inlineStr">
         <is>
           <t>お前がただの肉塊か、それとも多少は骨のある肉塊か……。この闘技場で証明してみせな。</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>お前がただの肉塊か、それとも多少は骨のある肉塊か……。この闘技場で証明してみせな。</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>chitsii.arena.player.rank,0</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>sukutsu_gladiator,1</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>sukutsu_arena_stage,1</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>sukutsu_opening_seen,1</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>modInvoke</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>complete_quest(01_opening)</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>fadeOut</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>end</t>
         </is>
